--- a/test15-interpolate/dssim.xlsx
+++ b/test15-interpolate/dssim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ddsim-optimized.tsv" sheetId="1" r:id="rId1"/>
@@ -7464,8 +7464,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7563,7 +7567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7604,6 +7608,8 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7644,6 +7650,8 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7975,9 +7983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G122"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AO123" sqref="AO123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8999,7 +9007,7 @@
         <v>1960</v>
       </c>
       <c r="N9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>1840</v>
@@ -9017,7 +9025,7 @@
         <v>1720</v>
       </c>
       <c r="T9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>1480</v>
@@ -9035,13 +9043,13 @@
         <v>1360</v>
       </c>
       <c r="Z9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>1000</v>
       </c>
       <c r="AB9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="AC9" s="12" t="s">
         <v>1120</v>
@@ -9071,13 +9079,13 @@
         <v>520</v>
       </c>
       <c r="AL9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="AM9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="AN9" s="2">
-        <v>2.2230000000000001E-3</v>
+        <v>2.2239999999999998E-3</v>
       </c>
       <c r="AO9" s="12" t="s">
         <v>280</v>
@@ -9817,121 +9825,121 @@
     </row>
     <row r="16" spans="2:41">
       <c r="B16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>407</v>
       </c>
       <c r="F16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>2327</v>
       </c>
       <c r="H16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>2207</v>
       </c>
       <c r="J16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>2087</v>
       </c>
       <c r="L16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>1967</v>
       </c>
       <c r="N16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>1847</v>
       </c>
       <c r="P16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>1607</v>
       </c>
       <c r="R16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>1727</v>
       </c>
       <c r="T16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>1487</v>
       </c>
       <c r="V16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="W16" s="11" t="s">
         <v>1247</v>
       </c>
       <c r="X16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>1367</v>
       </c>
       <c r="Z16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>1007</v>
       </c>
       <c r="AB16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AC16" s="11" t="s">
         <v>1127</v>
       </c>
       <c r="AD16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AE16" s="11" t="s">
         <v>767</v>
       </c>
       <c r="AF16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AG16" s="11" t="s">
         <v>887</v>
       </c>
       <c r="AH16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>647</v>
       </c>
       <c r="AJ16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>527</v>
       </c>
       <c r="AL16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AM16" s="11" t="s">
         <v>167</v>
       </c>
       <c r="AN16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AO16" s="11" t="s">
         <v>287</v>
@@ -10061,121 +10069,121 @@
     </row>
     <row r="18" spans="2:41">
       <c r="B18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>409</v>
       </c>
       <c r="F18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>2329</v>
       </c>
       <c r="H18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2872E-2</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>2209</v>
       </c>
       <c r="J18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>2089</v>
       </c>
       <c r="L18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>1969</v>
       </c>
       <c r="N18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>1849</v>
       </c>
       <c r="P18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>1609</v>
       </c>
       <c r="R18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>1729</v>
       </c>
       <c r="T18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>1489</v>
       </c>
       <c r="V18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>1249</v>
       </c>
       <c r="X18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>1369</v>
       </c>
       <c r="Z18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>1009</v>
       </c>
       <c r="AB18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>1129</v>
       </c>
       <c r="AD18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>769</v>
       </c>
       <c r="AF18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AG18" s="12" t="s">
         <v>889</v>
       </c>
       <c r="AH18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AI18" s="12" t="s">
         <v>649</v>
       </c>
       <c r="AJ18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AK18" s="12" t="s">
         <v>529</v>
       </c>
       <c r="AL18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AM18" s="12" t="s">
         <v>169</v>
       </c>
       <c r="AN18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AO18" s="12" t="s">
         <v>289</v>
@@ -10183,31 +10191,31 @@
     </row>
     <row r="19" spans="2:41">
       <c r="B19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>410</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>2330</v>
       </c>
       <c r="H19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>2210</v>
       </c>
       <c r="J19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>2090</v>
@@ -10219,25 +10227,25 @@
         <v>1970</v>
       </c>
       <c r="N19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>1850</v>
       </c>
       <c r="P19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>1610</v>
       </c>
       <c r="R19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>1730</v>
       </c>
       <c r="T19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>1490</v>
@@ -10255,13 +10263,13 @@
         <v>1370</v>
       </c>
       <c r="Z19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="AA19" s="12" t="s">
         <v>1010</v>
       </c>
       <c r="AB19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>1130</v>
@@ -10285,19 +10293,19 @@
         <v>650</v>
       </c>
       <c r="AJ19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="AK19" s="12" t="s">
         <v>530</v>
       </c>
       <c r="AL19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="AM19" s="12" t="s">
         <v>170</v>
       </c>
       <c r="AN19" s="2">
-        <v>1.1720000000000001E-3</v>
+        <v>1.173E-3</v>
       </c>
       <c r="AO19" s="12" t="s">
         <v>290</v>
@@ -10305,19 +10313,19 @@
     </row>
     <row r="20" spans="2:41">
       <c r="B20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>411</v>
       </c>
       <c r="F20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>2331</v>
@@ -10335,91 +10343,91 @@
         <v>2091</v>
       </c>
       <c r="L20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>1971</v>
       </c>
       <c r="N20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>1851</v>
       </c>
       <c r="P20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>1611</v>
       </c>
       <c r="R20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>1731</v>
       </c>
       <c r="T20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>1491</v>
       </c>
       <c r="V20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="W20" s="12" t="s">
         <v>1251</v>
       </c>
       <c r="X20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>1371</v>
       </c>
       <c r="Z20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>1011</v>
       </c>
       <c r="AB20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>1131</v>
       </c>
       <c r="AD20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AE20" s="12" t="s">
         <v>771</v>
       </c>
       <c r="AF20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AG20" s="12" t="s">
         <v>891</v>
       </c>
       <c r="AH20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AI20" s="12" t="s">
         <v>651</v>
       </c>
       <c r="AJ20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AK20" s="12" t="s">
         <v>531</v>
       </c>
       <c r="AL20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AM20" s="12" t="s">
         <v>171</v>
       </c>
       <c r="AN20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AO20" s="12" t="s">
         <v>291</v>
@@ -10427,121 +10435,121 @@
     </row>
     <row r="21" spans="2:41">
       <c r="B21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>412</v>
       </c>
       <c r="F21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>2332</v>
       </c>
       <c r="H21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>2212</v>
       </c>
       <c r="J21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>2092</v>
       </c>
       <c r="L21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>1972</v>
       </c>
       <c r="N21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>1852</v>
       </c>
       <c r="P21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>1612</v>
       </c>
       <c r="R21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>1732</v>
       </c>
       <c r="T21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>1492</v>
       </c>
       <c r="V21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>1252</v>
       </c>
       <c r="X21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>1372</v>
       </c>
       <c r="Z21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>1012</v>
       </c>
       <c r="AB21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AC21" s="11" t="s">
         <v>1132</v>
       </c>
       <c r="AD21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AE21" s="11" t="s">
         <v>772</v>
       </c>
       <c r="AF21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AG21" s="11" t="s">
         <v>892</v>
       </c>
       <c r="AH21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>652</v>
       </c>
       <c r="AJ21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AK21" s="11" t="s">
         <v>532</v>
       </c>
       <c r="AL21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AM21" s="11" t="s">
         <v>172</v>
       </c>
       <c r="AN21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AO21" s="11" t="s">
         <v>292</v>
@@ -10671,121 +10679,121 @@
     </row>
     <row r="23" spans="2:41">
       <c r="B23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>414</v>
       </c>
       <c r="F23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>2334</v>
       </c>
       <c r="H23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>2214</v>
       </c>
       <c r="J23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>2094</v>
       </c>
       <c r="L23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>1974</v>
       </c>
       <c r="N23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>1854</v>
       </c>
       <c r="P23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>1614</v>
       </c>
       <c r="R23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>1734</v>
       </c>
       <c r="T23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>1494</v>
       </c>
       <c r="V23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>1254</v>
       </c>
       <c r="X23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="Y23" s="11" t="s">
         <v>1374</v>
       </c>
       <c r="Z23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>1014</v>
       </c>
       <c r="AB23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AC23" s="11" t="s">
         <v>1134</v>
       </c>
       <c r="AD23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AE23" s="11" t="s">
         <v>774</v>
       </c>
       <c r="AF23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AG23" s="11" t="s">
         <v>894</v>
       </c>
       <c r="AH23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>654</v>
       </c>
       <c r="AJ23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AK23" s="11" t="s">
         <v>534</v>
       </c>
       <c r="AL23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AM23" s="11" t="s">
         <v>174</v>
       </c>
       <c r="AN23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AO23" s="11" t="s">
         <v>294</v>
@@ -10793,121 +10801,121 @@
     </row>
     <row r="24" spans="2:41">
       <c r="B24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>415</v>
       </c>
       <c r="F24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>2335</v>
       </c>
       <c r="H24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>2215</v>
       </c>
       <c r="J24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>2095</v>
       </c>
       <c r="L24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>1975</v>
       </c>
       <c r="N24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>1855</v>
       </c>
       <c r="P24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>1615</v>
       </c>
       <c r="R24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>1735</v>
       </c>
       <c r="T24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>1495</v>
       </c>
       <c r="V24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>1255</v>
       </c>
       <c r="X24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>1375</v>
       </c>
       <c r="Z24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AA24" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="AB24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AC24" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="AD24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AE24" s="11" t="s">
         <v>775</v>
       </c>
       <c r="AF24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>895</v>
       </c>
       <c r="AH24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>655</v>
       </c>
       <c r="AJ24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AK24" s="11" t="s">
         <v>535</v>
       </c>
       <c r="AL24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>175</v>
       </c>
       <c r="AN24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AO24" s="11" t="s">
         <v>295</v>
@@ -11037,121 +11045,121 @@
     </row>
     <row r="26" spans="2:41">
       <c r="B26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>417</v>
       </c>
       <c r="F26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>2337</v>
       </c>
       <c r="H26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>2217</v>
       </c>
       <c r="J26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>2097</v>
       </c>
       <c r="L26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>1977</v>
       </c>
       <c r="N26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>1857</v>
       </c>
       <c r="P26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>1617</v>
       </c>
       <c r="R26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>1737</v>
       </c>
       <c r="T26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>1497</v>
       </c>
       <c r="V26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="W26" s="11" t="s">
         <v>1257</v>
       </c>
       <c r="X26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="Y26" s="11" t="s">
         <v>1377</v>
       </c>
       <c r="Z26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AA26" s="11" t="s">
         <v>1017</v>
       </c>
       <c r="AB26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AC26" s="11" t="s">
         <v>1137</v>
       </c>
       <c r="AD26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AE26" s="11" t="s">
         <v>777</v>
       </c>
       <c r="AF26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AG26" s="11" t="s">
         <v>897</v>
       </c>
       <c r="AH26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AI26" s="11" t="s">
         <v>657</v>
       </c>
       <c r="AJ26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AK26" s="11" t="s">
         <v>537</v>
       </c>
       <c r="AL26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>177</v>
       </c>
       <c r="AN26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AO26" s="11" t="s">
         <v>297</v>
@@ -11189,7 +11197,7 @@
         <v>2098</v>
       </c>
       <c r="L27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>1978</v>
@@ -11281,121 +11289,121 @@
     </row>
     <row r="28" spans="2:41">
       <c r="B28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>419</v>
       </c>
       <c r="F28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>2339</v>
       </c>
       <c r="H28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>2219</v>
       </c>
       <c r="J28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>2099</v>
       </c>
       <c r="L28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>1979</v>
       </c>
       <c r="N28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>1859</v>
       </c>
       <c r="P28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>1619</v>
       </c>
       <c r="R28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>1739</v>
       </c>
       <c r="T28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="U28" s="12" t="s">
         <v>1499</v>
       </c>
       <c r="V28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>1259</v>
       </c>
       <c r="X28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>1379</v>
       </c>
       <c r="Z28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AA28" s="12" t="s">
         <v>1019</v>
       </c>
       <c r="AB28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>1139</v>
       </c>
       <c r="AD28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AE28" s="12" t="s">
         <v>779</v>
       </c>
       <c r="AF28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AG28" s="12" t="s">
         <v>899</v>
       </c>
       <c r="AH28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AI28" s="12" t="s">
         <v>659</v>
       </c>
       <c r="AJ28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AK28" s="12" t="s">
         <v>539</v>
       </c>
       <c r="AL28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AM28" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AN28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AO28" s="12" t="s">
         <v>299</v>
@@ -11403,121 +11411,121 @@
     </row>
     <row r="29" spans="2:41">
       <c r="B29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>420</v>
       </c>
       <c r="F29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>2340</v>
       </c>
       <c r="H29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>2220</v>
       </c>
       <c r="J29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>2100</v>
       </c>
       <c r="L29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>1980</v>
       </c>
       <c r="N29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.2030000000000002E-3</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>1860</v>
       </c>
       <c r="P29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.202E-3</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>1620</v>
       </c>
       <c r="R29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.202E-3</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>1740</v>
       </c>
       <c r="T29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.202E-3</v>
       </c>
       <c r="U29" s="12" t="s">
         <v>1500</v>
       </c>
       <c r="V29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>1260</v>
       </c>
       <c r="X29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>1380</v>
       </c>
       <c r="Z29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.2030000000000002E-3</v>
       </c>
       <c r="AA29" s="12" t="s">
         <v>1020</v>
       </c>
       <c r="AB29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.2030000000000002E-3</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>1140</v>
       </c>
       <c r="AD29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>780</v>
       </c>
       <c r="AF29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="AG29" s="12" t="s">
         <v>900</v>
       </c>
       <c r="AH29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="AI29" s="12" t="s">
         <v>660</v>
       </c>
       <c r="AJ29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.202E-3</v>
       </c>
       <c r="AK29" s="12" t="s">
         <v>540</v>
       </c>
       <c r="AL29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.2030000000000002E-3</v>
       </c>
       <c r="AM29" s="12" t="s">
         <v>180</v>
       </c>
       <c r="AN29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.2030000000000002E-3</v>
       </c>
       <c r="AO29" s="12" t="s">
         <v>300</v>
@@ -11543,103 +11551,103 @@
         <v>2341</v>
       </c>
       <c r="H30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>2221</v>
       </c>
       <c r="J30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>2101</v>
       </c>
       <c r="L30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>1981</v>
       </c>
       <c r="N30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>1861</v>
       </c>
       <c r="P30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>1621</v>
       </c>
       <c r="R30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>1741</v>
       </c>
       <c r="T30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="U30" s="12" t="s">
         <v>1501</v>
       </c>
       <c r="V30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>1261</v>
       </c>
       <c r="X30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>1381</v>
       </c>
       <c r="Z30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AA30" s="12" t="s">
         <v>1021</v>
       </c>
       <c r="AB30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>1141</v>
       </c>
       <c r="AD30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AE30" s="12" t="s">
         <v>781</v>
       </c>
       <c r="AF30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AG30" s="12" t="s">
         <v>901</v>
       </c>
       <c r="AH30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AI30" s="12" t="s">
         <v>661</v>
       </c>
       <c r="AJ30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AK30" s="12" t="s">
         <v>541</v>
       </c>
       <c r="AL30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AM30" s="12" t="s">
         <v>181</v>
       </c>
       <c r="AN30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AO30" s="12" t="s">
         <v>301</v>
@@ -11769,121 +11777,121 @@
     </row>
     <row r="32" spans="2:41">
       <c r="B32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>423</v>
       </c>
       <c r="F32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>2343</v>
       </c>
       <c r="H32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>2223</v>
       </c>
       <c r="J32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>2103</v>
       </c>
       <c r="L32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>1983</v>
       </c>
       <c r="N32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>1863</v>
       </c>
       <c r="P32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>1623</v>
       </c>
       <c r="R32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>1743</v>
       </c>
       <c r="T32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="U32" s="12" t="s">
         <v>1503</v>
       </c>
       <c r="V32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>1263</v>
       </c>
       <c r="X32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>1383</v>
       </c>
       <c r="Z32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AA32" s="12" t="s">
         <v>1023</v>
       </c>
       <c r="AB32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AC32" s="12" t="s">
         <v>1143</v>
       </c>
       <c r="AD32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AE32" s="12" t="s">
         <v>783</v>
       </c>
       <c r="AF32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AG32" s="12" t="s">
         <v>903</v>
       </c>
       <c r="AH32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AI32" s="12" t="s">
         <v>663</v>
       </c>
       <c r="AJ32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AK32" s="12" t="s">
         <v>543</v>
       </c>
       <c r="AL32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AM32" s="12" t="s">
         <v>183</v>
       </c>
       <c r="AN32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AO32" s="12" t="s">
         <v>303</v>
@@ -12135,121 +12143,121 @@
     </row>
     <row r="35" spans="2:41">
       <c r="B35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>426</v>
       </c>
       <c r="F35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>2346</v>
       </c>
       <c r="H35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>2226</v>
       </c>
       <c r="J35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>2106</v>
       </c>
       <c r="L35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>1986</v>
       </c>
       <c r="N35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>1866</v>
       </c>
       <c r="P35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>1626</v>
       </c>
       <c r="R35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>1746</v>
       </c>
       <c r="T35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="U35" s="12" t="s">
         <v>1506</v>
       </c>
       <c r="V35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="W35" s="12" t="s">
         <v>1266</v>
       </c>
       <c r="X35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>1386</v>
       </c>
       <c r="Z35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AA35" s="12" t="s">
         <v>1026</v>
       </c>
       <c r="AB35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AC35" s="12" t="s">
         <v>1146</v>
       </c>
       <c r="AD35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AE35" s="12" t="s">
         <v>786</v>
       </c>
       <c r="AF35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AG35" s="12" t="s">
         <v>906</v>
       </c>
       <c r="AH35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AI35" s="12" t="s">
         <v>666</v>
       </c>
       <c r="AJ35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AK35" s="12" t="s">
         <v>546</v>
       </c>
       <c r="AL35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AM35" s="12" t="s">
         <v>186</v>
       </c>
       <c r="AN35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="AO35" s="12" t="s">
         <v>306</v>
@@ -12519,13 +12527,13 @@
         <v>2349</v>
       </c>
       <c r="H38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>2229</v>
       </c>
       <c r="J38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>2109</v>
@@ -12555,19 +12563,19 @@
         <v>1749</v>
       </c>
       <c r="T38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="U38" s="12" t="s">
         <v>1509</v>
       </c>
       <c r="V38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="W38" s="12" t="s">
         <v>1269</v>
       </c>
       <c r="X38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="Y38" s="12" t="s">
         <v>1389</v>
@@ -12585,19 +12593,19 @@
         <v>1149</v>
       </c>
       <c r="AD38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="AE38" s="12" t="s">
         <v>789</v>
       </c>
       <c r="AF38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>909</v>
       </c>
       <c r="AH38" s="2">
-        <v>1.2539999999999999E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="AI38" s="12" t="s">
         <v>669</v>
@@ -12745,121 +12753,121 @@
     </row>
     <row r="40" spans="2:41">
       <c r="B40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>431</v>
       </c>
       <c r="F40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>2351</v>
       </c>
       <c r="H40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>2231</v>
       </c>
       <c r="J40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>2111</v>
       </c>
       <c r="L40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>1991</v>
       </c>
       <c r="N40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>1871</v>
       </c>
       <c r="P40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>1631</v>
       </c>
       <c r="R40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="S40" s="12" t="s">
         <v>1751</v>
       </c>
       <c r="T40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="U40" s="12" t="s">
         <v>1511</v>
       </c>
       <c r="V40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>1271</v>
       </c>
       <c r="X40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>1391</v>
       </c>
       <c r="Z40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AA40" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="AB40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AC40" s="12" t="s">
         <v>1151</v>
       </c>
       <c r="AD40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AE40" s="12" t="s">
         <v>791</v>
       </c>
       <c r="AF40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AG40" s="12" t="s">
         <v>911</v>
       </c>
       <c r="AH40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AI40" s="12" t="s">
         <v>671</v>
       </c>
       <c r="AJ40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AK40" s="12" t="s">
         <v>551</v>
       </c>
       <c r="AL40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AM40" s="12" t="s">
         <v>191</v>
       </c>
       <c r="AN40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AO40" s="12" t="s">
         <v>311</v>
@@ -13111,121 +13119,121 @@
     </row>
     <row r="43" spans="2:41">
       <c r="B43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>434</v>
       </c>
       <c r="F43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>2354</v>
       </c>
       <c r="H43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>2234</v>
       </c>
       <c r="J43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>2114</v>
       </c>
       <c r="L43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>1994</v>
       </c>
       <c r="N43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>1874</v>
       </c>
       <c r="P43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="Q43" s="12" t="s">
         <v>1634</v>
       </c>
       <c r="R43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>1754</v>
       </c>
       <c r="T43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="U43" s="12" t="s">
         <v>1514</v>
       </c>
       <c r="V43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="W43" s="12" t="s">
         <v>1274</v>
       </c>
       <c r="X43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>1394</v>
       </c>
       <c r="Z43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AA43" s="12" t="s">
         <v>1034</v>
       </c>
       <c r="AB43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AC43" s="12" t="s">
         <v>1154</v>
       </c>
       <c r="AD43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AE43" s="12" t="s">
         <v>794</v>
       </c>
       <c r="AF43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AG43" s="12" t="s">
         <v>914</v>
       </c>
       <c r="AH43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AI43" s="12" t="s">
         <v>674</v>
       </c>
       <c r="AJ43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AK43" s="12" t="s">
         <v>554</v>
       </c>
       <c r="AL43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AM43" s="12" t="s">
         <v>194</v>
       </c>
       <c r="AN43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AO43" s="12" t="s">
         <v>314</v>
@@ -13965,121 +13973,121 @@
     </row>
     <row r="50" spans="2:41">
       <c r="B50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9250000000000006E-3</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9250000000000006E-3</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>441</v>
       </c>
       <c r="F50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9250000000000006E-3</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>2361</v>
       </c>
       <c r="H50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9250000000000006E-3</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>2241</v>
       </c>
       <c r="J50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9250000000000006E-3</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>2121</v>
       </c>
       <c r="L50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>2001</v>
       </c>
       <c r="N50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9259999999999999E-3</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1881</v>
       </c>
       <c r="P50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>1641</v>
       </c>
       <c r="R50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="T50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="U50" s="11" t="s">
         <v>1521</v>
       </c>
       <c r="V50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>1281</v>
       </c>
       <c r="X50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="Y50" s="11" t="s">
         <v>1401</v>
       </c>
       <c r="Z50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AA50" s="11" t="s">
         <v>1041</v>
       </c>
       <c r="AB50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AC50" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="AD50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AE50" s="11" t="s">
         <v>801</v>
       </c>
       <c r="AF50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AG50" s="11" t="s">
         <v>921</v>
       </c>
       <c r="AH50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AI50" s="11" t="s">
         <v>681</v>
       </c>
       <c r="AJ50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9280000000000002E-3</v>
       </c>
       <c r="AK50" s="11" t="s">
         <v>561</v>
       </c>
       <c r="AL50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9259999999999999E-3</v>
       </c>
       <c r="AM50" s="11" t="s">
         <v>201</v>
       </c>
       <c r="AN50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9259999999999999E-3</v>
       </c>
       <c r="AO50" s="11" t="s">
         <v>321</v>
@@ -14117,7 +14125,7 @@
         <v>2122</v>
       </c>
       <c r="L51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>2002</v>
@@ -14129,67 +14137,67 @@
         <v>1882</v>
       </c>
       <c r="P51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>1642</v>
       </c>
       <c r="R51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>1762</v>
       </c>
       <c r="T51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="U51" s="11" t="s">
         <v>1522</v>
       </c>
       <c r="V51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="W51" s="11" t="s">
         <v>1282</v>
       </c>
       <c r="X51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="Y51" s="11" t="s">
         <v>1402</v>
       </c>
       <c r="Z51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AA51" s="11" t="s">
         <v>1042</v>
       </c>
       <c r="AB51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AC51" s="11" t="s">
         <v>1162</v>
       </c>
       <c r="AD51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AE51" s="11" t="s">
         <v>802</v>
       </c>
       <c r="AF51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AG51" s="11" t="s">
         <v>922</v>
       </c>
       <c r="AH51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AI51" s="11" t="s">
         <v>682</v>
       </c>
       <c r="AJ51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9379999999999997E-3</v>
       </c>
       <c r="AK51" s="11" t="s">
         <v>562</v>
@@ -14575,121 +14583,121 @@
     </row>
     <row r="55" spans="2:41">
       <c r="B55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>446</v>
       </c>
       <c r="F55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>2366</v>
       </c>
       <c r="H55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>2246</v>
       </c>
       <c r="J55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>2126</v>
       </c>
       <c r="L55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>2006</v>
       </c>
       <c r="N55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>1886</v>
       </c>
       <c r="P55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>1646</v>
       </c>
       <c r="R55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>1766</v>
       </c>
       <c r="T55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="U55" s="11" t="s">
         <v>1526</v>
       </c>
       <c r="V55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="W55" s="11" t="s">
         <v>1286</v>
       </c>
       <c r="X55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="Y55" s="11" t="s">
         <v>1406</v>
       </c>
       <c r="Z55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AA55" s="11" t="s">
         <v>1046</v>
       </c>
       <c r="AB55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>1166</v>
       </c>
       <c r="AD55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AE55" s="11" t="s">
         <v>806</v>
       </c>
       <c r="AF55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AG55" s="11" t="s">
         <v>926</v>
       </c>
       <c r="AH55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AI55" s="11" t="s">
         <v>686</v>
       </c>
       <c r="AJ55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AK55" s="11" t="s">
         <v>566</v>
       </c>
       <c r="AL55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AM55" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AN55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AO55" s="11" t="s">
         <v>326</v>
@@ -14941,31 +14949,31 @@
     </row>
     <row r="58" spans="2:41">
       <c r="B58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>449</v>
       </c>
       <c r="F58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>2369</v>
       </c>
       <c r="H58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>2249</v>
       </c>
       <c r="J58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>2129</v>
@@ -14977,85 +14985,85 @@
         <v>2009</v>
       </c>
       <c r="N58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>1889</v>
       </c>
       <c r="P58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>1649</v>
       </c>
       <c r="R58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>1769</v>
       </c>
       <c r="T58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="U58" s="11" t="s">
         <v>1529</v>
       </c>
       <c r="V58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="W58" s="11" t="s">
         <v>1289</v>
       </c>
       <c r="X58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="Y58" s="11" t="s">
         <v>1409</v>
       </c>
       <c r="Z58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="AA58" s="11" t="s">
         <v>1049</v>
       </c>
       <c r="AB58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="AC58" s="11" t="s">
         <v>1169</v>
       </c>
       <c r="AD58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="AE58" s="11" t="s">
         <v>809</v>
       </c>
       <c r="AF58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="AG58" s="11" t="s">
         <v>929</v>
       </c>
       <c r="AH58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.4530000000000004E-3</v>
       </c>
       <c r="AI58" s="11" t="s">
         <v>689</v>
       </c>
       <c r="AJ58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="AK58" s="11" t="s">
         <v>569</v>
       </c>
       <c r="AL58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="AM58" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AN58" s="6">
-        <v>4.4539999999999996E-3</v>
+        <v>4.457E-3</v>
       </c>
       <c r="AO58" s="11" t="s">
         <v>329</v>
@@ -15063,61 +15071,61 @@
     </row>
     <row r="59" spans="2:41">
       <c r="B59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>450</v>
       </c>
       <c r="F59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>2370</v>
       </c>
       <c r="H59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>2250</v>
       </c>
       <c r="J59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>2130</v>
       </c>
       <c r="L59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="M59" s="11" t="s">
         <v>2010</v>
       </c>
       <c r="N59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="P59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>1650</v>
       </c>
       <c r="R59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>1770</v>
       </c>
       <c r="T59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="U59" s="11" t="s">
         <v>1530</v>
@@ -15135,13 +15143,13 @@
         <v>1410</v>
       </c>
       <c r="Z59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="AA59" s="11" t="s">
         <v>1050</v>
       </c>
       <c r="AB59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>1170</v>
@@ -15165,19 +15173,19 @@
         <v>690</v>
       </c>
       <c r="AJ59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="AK59" s="11" t="s">
         <v>570</v>
       </c>
       <c r="AL59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="AM59" s="11" t="s">
         <v>210</v>
       </c>
       <c r="AN59" s="6">
-        <v>5.04E-4</v>
+        <v>5.1199999999999998E-4</v>
       </c>
       <c r="AO59" s="11" t="s">
         <v>330</v>
@@ -15185,121 +15193,121 @@
     </row>
     <row r="60" spans="2:41">
       <c r="B60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>451</v>
       </c>
       <c r="F60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>2371</v>
       </c>
       <c r="H60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>2251</v>
       </c>
       <c r="J60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>2131</v>
       </c>
       <c r="L60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="M60" s="11" t="s">
         <v>2011</v>
       </c>
       <c r="N60" s="6">
-        <v>1.016E-3</v>
+        <v>1.021E-3</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="P60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>1651</v>
       </c>
       <c r="R60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>1771</v>
       </c>
       <c r="T60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="U60" s="11" t="s">
         <v>1531</v>
       </c>
       <c r="V60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="W60" s="11" t="s">
         <v>1291</v>
       </c>
       <c r="X60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="Y60" s="11" t="s">
         <v>1411</v>
       </c>
       <c r="Z60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="AA60" s="11" t="s">
         <v>1051</v>
       </c>
       <c r="AB60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="AC60" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="AD60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="AE60" s="11" t="s">
         <v>811</v>
       </c>
       <c r="AF60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="AG60" s="11" t="s">
         <v>931</v>
       </c>
       <c r="AH60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="AI60" s="11" t="s">
         <v>691</v>
       </c>
       <c r="AJ60" s="6">
-        <v>1.016E-3</v>
+        <v>1.023E-3</v>
       </c>
       <c r="AK60" s="11" t="s">
         <v>571</v>
       </c>
       <c r="AL60" s="6">
-        <v>1.016E-3</v>
+        <v>1.021E-3</v>
       </c>
       <c r="AM60" s="11" t="s">
         <v>211</v>
       </c>
       <c r="AN60" s="6">
-        <v>1.016E-3</v>
+        <v>1.021E-3</v>
       </c>
       <c r="AO60" s="11" t="s">
         <v>331</v>
@@ -15459,7 +15467,7 @@
         <v>2133</v>
       </c>
       <c r="L62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="M62" s="11" t="s">
         <v>2013</v>
@@ -15795,121 +15803,121 @@
     </row>
     <row r="65" spans="2:41">
       <c r="B65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>456</v>
       </c>
       <c r="F65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>2376</v>
       </c>
       <c r="H65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>2256</v>
       </c>
       <c r="J65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>2136</v>
       </c>
       <c r="L65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="M65" s="11" t="s">
         <v>2016</v>
       </c>
       <c r="N65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>1896</v>
       </c>
       <c r="P65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>1656</v>
       </c>
       <c r="R65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>1776</v>
       </c>
       <c r="T65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="U65" s="11" t="s">
         <v>1536</v>
       </c>
       <c r="V65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="W65" s="11" t="s">
         <v>1296</v>
       </c>
       <c r="X65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="Y65" s="11" t="s">
         <v>1416</v>
       </c>
       <c r="Z65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AA65" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="AB65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>1176</v>
       </c>
       <c r="AD65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AE65" s="11" t="s">
         <v>816</v>
       </c>
       <c r="AF65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AG65" s="11" t="s">
         <v>936</v>
       </c>
       <c r="AH65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AI65" s="11" t="s">
         <v>696</v>
       </c>
       <c r="AJ65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AK65" s="11" t="s">
         <v>576</v>
       </c>
       <c r="AL65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AM65" s="11" t="s">
         <v>216</v>
       </c>
       <c r="AN65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AO65" s="11" t="s">
         <v>336</v>
@@ -15917,121 +15925,121 @@
     </row>
     <row r="66" spans="2:41">
       <c r="B66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>457</v>
       </c>
       <c r="F66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>2377</v>
       </c>
       <c r="H66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>2257</v>
       </c>
       <c r="J66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>2137</v>
       </c>
       <c r="L66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>2017</v>
       </c>
       <c r="N66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>1897</v>
       </c>
       <c r="P66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>1657</v>
       </c>
       <c r="R66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>1777</v>
       </c>
       <c r="T66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="U66" s="11" t="s">
         <v>1537</v>
       </c>
       <c r="V66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="W66" s="11" t="s">
         <v>1297</v>
       </c>
       <c r="X66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="Y66" s="11" t="s">
         <v>1417</v>
       </c>
       <c r="Z66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AA66" s="11" t="s">
         <v>1057</v>
       </c>
       <c r="AB66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AC66" s="11" t="s">
         <v>1177</v>
       </c>
       <c r="AD66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AE66" s="11" t="s">
         <v>817</v>
       </c>
       <c r="AF66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AG66" s="11" t="s">
         <v>937</v>
       </c>
       <c r="AH66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AI66" s="11" t="s">
         <v>697</v>
       </c>
       <c r="AJ66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AK66" s="11" t="s">
         <v>577</v>
       </c>
       <c r="AL66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AM66" s="11" t="s">
         <v>217</v>
       </c>
       <c r="AN66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AO66" s="11" t="s">
         <v>337</v>
@@ -16039,121 +16047,121 @@
     </row>
     <row r="67" spans="2:41">
       <c r="B67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>458</v>
       </c>
       <c r="F67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>2378</v>
       </c>
       <c r="H67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>2258</v>
       </c>
       <c r="J67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>2138</v>
       </c>
       <c r="L67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="M67" s="11" t="s">
         <v>2018</v>
       </c>
       <c r="N67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>1898</v>
       </c>
       <c r="P67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>1658</v>
       </c>
       <c r="R67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>1778</v>
       </c>
       <c r="T67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>1538</v>
       </c>
       <c r="V67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="W67" s="11" t="s">
         <v>1298</v>
       </c>
       <c r="X67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="Y67" s="11" t="s">
         <v>1418</v>
       </c>
       <c r="Z67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AA67" s="11" t="s">
         <v>1058</v>
       </c>
       <c r="AB67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AC67" s="11" t="s">
         <v>1178</v>
       </c>
       <c r="AD67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AE67" s="11" t="s">
         <v>818</v>
       </c>
       <c r="AF67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>938</v>
       </c>
       <c r="AH67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AI67" s="11" t="s">
         <v>698</v>
       </c>
       <c r="AJ67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AK67" s="11" t="s">
         <v>578</v>
       </c>
       <c r="AL67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AM67" s="11" t="s">
         <v>218</v>
       </c>
       <c r="AN67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AO67" s="11" t="s">
         <v>338</v>
@@ -16161,31 +16169,31 @@
     </row>
     <row r="68" spans="2:41">
       <c r="B68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>459</v>
       </c>
       <c r="F68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>2379</v>
       </c>
       <c r="H68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>2259</v>
       </c>
       <c r="J68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>2139</v>
@@ -16197,85 +16205,85 @@
         <v>2019</v>
       </c>
       <c r="N68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>1899</v>
       </c>
       <c r="P68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>1659</v>
       </c>
       <c r="R68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>1779</v>
       </c>
       <c r="T68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="U68" s="11" t="s">
         <v>1539</v>
       </c>
       <c r="V68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="W68" s="11" t="s">
         <v>1299</v>
       </c>
       <c r="X68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="Y68" s="11" t="s">
         <v>1419</v>
       </c>
       <c r="Z68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AA68" s="11" t="s">
         <v>1059</v>
       </c>
       <c r="AB68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AC68" s="11" t="s">
         <v>1179</v>
       </c>
       <c r="AD68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AE68" s="11" t="s">
         <v>819</v>
       </c>
       <c r="AF68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AG68" s="11" t="s">
         <v>939</v>
       </c>
       <c r="AH68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AI68" s="11" t="s">
         <v>699</v>
       </c>
       <c r="AJ68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AK68" s="11" t="s">
         <v>579</v>
       </c>
       <c r="AL68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AM68" s="11" t="s">
         <v>219</v>
       </c>
       <c r="AN68" s="6">
-        <v>1.3209999999999999E-3</v>
+        <v>1.323E-3</v>
       </c>
       <c r="AO68" s="11" t="s">
         <v>339</v>
@@ -16283,121 +16291,121 @@
     </row>
     <row r="69" spans="2:41">
       <c r="B69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>460</v>
       </c>
       <c r="F69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>2380</v>
       </c>
       <c r="H69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>2260</v>
       </c>
       <c r="J69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>2140</v>
       </c>
       <c r="L69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>2020</v>
       </c>
       <c r="N69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>1900</v>
       </c>
       <c r="P69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>1660</v>
       </c>
       <c r="R69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>1780</v>
       </c>
       <c r="T69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="U69" s="11" t="s">
         <v>1540</v>
       </c>
       <c r="V69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8829999999999999E-3</v>
       </c>
       <c r="W69" s="11" t="s">
         <v>1300</v>
       </c>
       <c r="X69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8829999999999999E-3</v>
       </c>
       <c r="Y69" s="11" t="s">
         <v>1420</v>
       </c>
       <c r="Z69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="AA69" s="11" t="s">
         <v>1060</v>
       </c>
       <c r="AB69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>1180</v>
       </c>
       <c r="AD69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8829999999999999E-3</v>
       </c>
       <c r="AE69" s="11" t="s">
         <v>820</v>
       </c>
       <c r="AF69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8829999999999999E-3</v>
       </c>
       <c r="AG69" s="11" t="s">
         <v>940</v>
       </c>
       <c r="AH69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8829999999999999E-3</v>
       </c>
       <c r="AI69" s="11" t="s">
         <v>700</v>
       </c>
       <c r="AJ69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="AK69" s="11" t="s">
         <v>580</v>
       </c>
       <c r="AL69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="AM69" s="11" t="s">
         <v>220</v>
       </c>
       <c r="AN69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.8630000000000001E-3</v>
       </c>
       <c r="AO69" s="11" t="s">
         <v>340</v>
@@ -16405,121 +16413,121 @@
     </row>
     <row r="70" spans="2:41">
       <c r="B70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>461</v>
       </c>
       <c r="F70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>2381</v>
       </c>
       <c r="H70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>2261</v>
       </c>
       <c r="J70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>2141</v>
       </c>
       <c r="L70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="M70" s="11" t="s">
         <v>2021</v>
       </c>
       <c r="N70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>1901</v>
       </c>
       <c r="P70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>1661</v>
       </c>
       <c r="R70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>1781</v>
       </c>
       <c r="T70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="U70" s="11" t="s">
         <v>1541</v>
       </c>
       <c r="V70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="W70" s="11" t="s">
         <v>1301</v>
       </c>
       <c r="X70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="Y70" s="11" t="s">
         <v>1421</v>
       </c>
       <c r="Z70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AA70" s="11" t="s">
         <v>1061</v>
       </c>
       <c r="AB70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AC70" s="11" t="s">
         <v>1181</v>
       </c>
       <c r="AD70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AE70" s="11" t="s">
         <v>821</v>
       </c>
       <c r="AF70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AG70" s="11" t="s">
         <v>941</v>
       </c>
       <c r="AH70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AI70" s="11" t="s">
         <v>701</v>
       </c>
       <c r="AJ70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AK70" s="11" t="s">
         <v>581</v>
       </c>
       <c r="AL70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AM70" s="11" t="s">
         <v>221</v>
       </c>
       <c r="AN70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.4809999999999999E-3</v>
       </c>
       <c r="AO70" s="11" t="s">
         <v>341</v>
@@ -16527,121 +16535,121 @@
     </row>
     <row r="71" spans="2:41">
       <c r="B71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>462</v>
       </c>
       <c r="F71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>2382</v>
       </c>
       <c r="H71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>2262</v>
       </c>
       <c r="J71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>2142</v>
       </c>
       <c r="L71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="M71" s="11" t="s">
         <v>2022</v>
       </c>
       <c r="N71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>1902</v>
       </c>
       <c r="P71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>1662</v>
       </c>
       <c r="R71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>1782</v>
       </c>
       <c r="T71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="U71" s="11" t="s">
         <v>1542</v>
       </c>
       <c r="V71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="W71" s="11" t="s">
         <v>1302</v>
       </c>
       <c r="X71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="Y71" s="11" t="s">
         <v>1422</v>
       </c>
       <c r="Z71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AA71" s="11" t="s">
         <v>1062</v>
       </c>
       <c r="AB71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AC71" s="11" t="s">
         <v>1182</v>
       </c>
       <c r="AD71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>822</v>
       </c>
       <c r="AF71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AG71" s="11" t="s">
         <v>942</v>
       </c>
       <c r="AH71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AI71" s="11" t="s">
         <v>702</v>
       </c>
       <c r="AJ71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AK71" s="11" t="s">
         <v>582</v>
       </c>
       <c r="AL71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="AN71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AO71" s="11" t="s">
         <v>342</v>
@@ -16649,121 +16657,121 @@
     </row>
     <row r="72" spans="2:41">
       <c r="B72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>463</v>
       </c>
       <c r="F72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>2383</v>
       </c>
       <c r="H72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>2263</v>
       </c>
       <c r="J72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>2143</v>
       </c>
       <c r="L72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>2023</v>
       </c>
       <c r="N72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>1903</v>
       </c>
       <c r="P72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>1663</v>
       </c>
       <c r="R72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>1783</v>
       </c>
       <c r="T72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="U72" s="11" t="s">
         <v>1543</v>
       </c>
       <c r="V72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="W72" s="11" t="s">
         <v>1303</v>
       </c>
       <c r="X72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="Y72" s="11" t="s">
         <v>1423</v>
       </c>
       <c r="Z72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AA72" s="11" t="s">
         <v>1063</v>
       </c>
       <c r="AB72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AC72" s="11" t="s">
         <v>1183</v>
       </c>
       <c r="AD72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AE72" s="11" t="s">
         <v>823</v>
       </c>
       <c r="AF72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AG72" s="11" t="s">
         <v>943</v>
       </c>
       <c r="AH72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AI72" s="11" t="s">
         <v>703</v>
       </c>
       <c r="AJ72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AK72" s="11" t="s">
         <v>583</v>
       </c>
       <c r="AL72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>223</v>
       </c>
       <c r="AN72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AO72" s="11" t="s">
         <v>343</v>
@@ -16893,121 +16901,121 @@
     </row>
     <row r="74" spans="2:41">
       <c r="B74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>465</v>
       </c>
       <c r="F74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>2385</v>
       </c>
       <c r="H74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>2265</v>
       </c>
       <c r="J74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>2145</v>
       </c>
       <c r="L74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="M74" s="11" t="s">
         <v>2025</v>
       </c>
       <c r="N74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="O74" s="11" t="s">
         <v>1905</v>
       </c>
       <c r="P74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>1665</v>
       </c>
       <c r="R74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>1785</v>
       </c>
       <c r="T74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="U74" s="11" t="s">
         <v>1545</v>
       </c>
       <c r="V74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="W74" s="11" t="s">
         <v>1305</v>
       </c>
       <c r="X74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="Y74" s="11" t="s">
         <v>1425</v>
       </c>
       <c r="Z74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AA74" s="11" t="s">
         <v>1065</v>
       </c>
       <c r="AB74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AC74" s="11" t="s">
         <v>1185</v>
       </c>
       <c r="AD74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AE74" s="11" t="s">
         <v>825</v>
       </c>
       <c r="AF74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AG74" s="11" t="s">
         <v>945</v>
       </c>
       <c r="AH74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AI74" s="11" t="s">
         <v>705</v>
       </c>
       <c r="AJ74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AK74" s="11" t="s">
         <v>585</v>
       </c>
       <c r="AL74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AM74" s="11" t="s">
         <v>225</v>
       </c>
       <c r="AN74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AO74" s="11" t="s">
         <v>345</v>
@@ -17015,121 +17023,121 @@
     </row>
     <row r="75" spans="2:41">
       <c r="B75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>466</v>
       </c>
       <c r="F75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>2386</v>
       </c>
       <c r="H75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>2266</v>
       </c>
       <c r="J75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>2146</v>
       </c>
       <c r="L75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>2026</v>
       </c>
       <c r="N75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>1906</v>
       </c>
       <c r="P75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>1666</v>
       </c>
       <c r="R75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>1786</v>
       </c>
       <c r="T75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="U75" s="11" t="s">
         <v>1546</v>
       </c>
       <c r="V75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="W75" s="11" t="s">
         <v>1306</v>
       </c>
       <c r="X75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="Y75" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="Z75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AA75" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="AB75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AC75" s="11" t="s">
         <v>1186</v>
       </c>
       <c r="AD75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AE75" s="11" t="s">
         <v>826</v>
       </c>
       <c r="AF75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AG75" s="11" t="s">
         <v>946</v>
       </c>
       <c r="AH75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AI75" s="11" t="s">
         <v>706</v>
       </c>
       <c r="AJ75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AK75" s="11" t="s">
         <v>586</v>
       </c>
       <c r="AL75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AM75" s="11" t="s">
         <v>226</v>
       </c>
       <c r="AN75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="AO75" s="11" t="s">
         <v>346</v>
@@ -17137,121 +17145,121 @@
     </row>
     <row r="76" spans="2:41">
       <c r="B76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>467</v>
       </c>
       <c r="F76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>2387</v>
       </c>
       <c r="H76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>2267</v>
       </c>
       <c r="J76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>2147</v>
       </c>
       <c r="L76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>2027</v>
       </c>
       <c r="N76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>1907</v>
       </c>
       <c r="P76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>1667</v>
       </c>
       <c r="R76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>1787</v>
       </c>
       <c r="T76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="U76" s="11" t="s">
         <v>1547</v>
       </c>
       <c r="V76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="W76" s="11" t="s">
         <v>1307</v>
       </c>
       <c r="X76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="Y76" s="11" t="s">
         <v>1427</v>
       </c>
       <c r="Z76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AA76" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="AB76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AC76" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="AD76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AE76" s="11" t="s">
         <v>827</v>
       </c>
       <c r="AF76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AG76" s="11" t="s">
         <v>947</v>
       </c>
       <c r="AH76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AI76" s="11" t="s">
         <v>707</v>
       </c>
       <c r="AJ76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AK76" s="11" t="s">
         <v>587</v>
       </c>
       <c r="AL76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AM76" s="11" t="s">
         <v>227</v>
       </c>
       <c r="AN76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AO76" s="11" t="s">
         <v>347</v>
@@ -17259,121 +17267,121 @@
     </row>
     <row r="77" spans="2:41">
       <c r="B77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>468</v>
       </c>
       <c r="F77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>2388</v>
       </c>
       <c r="H77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>2268</v>
       </c>
       <c r="J77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>2148</v>
       </c>
       <c r="L77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>2028</v>
       </c>
       <c r="N77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>1908</v>
       </c>
       <c r="P77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>1668</v>
       </c>
       <c r="R77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>1788</v>
       </c>
       <c r="T77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>1548</v>
       </c>
       <c r="V77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="W77" s="11" t="s">
         <v>1308</v>
       </c>
       <c r="X77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="Y77" s="11" t="s">
         <v>1428</v>
       </c>
       <c r="Z77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AA77" s="11" t="s">
         <v>1068</v>
       </c>
       <c r="AB77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AC77" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="AD77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AE77" s="11" t="s">
         <v>828</v>
       </c>
       <c r="AF77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AG77" s="11" t="s">
         <v>948</v>
       </c>
       <c r="AH77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AI77" s="11" t="s">
         <v>708</v>
       </c>
       <c r="AJ77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AK77" s="11" t="s">
         <v>588</v>
       </c>
       <c r="AL77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AM77" s="11" t="s">
         <v>228</v>
       </c>
       <c r="AN77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AO77" s="11" t="s">
         <v>348</v>
@@ -17411,7 +17419,7 @@
         <v>2149</v>
       </c>
       <c r="L78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="M78" s="11" t="s">
         <v>2029</v>
@@ -17625,121 +17633,121 @@
     </row>
     <row r="80" spans="2:41">
       <c r="B80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>471</v>
       </c>
       <c r="F80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>2391</v>
       </c>
       <c r="H80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>2271</v>
       </c>
       <c r="J80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>2151</v>
       </c>
       <c r="L80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="M80" s="11" t="s">
         <v>2031</v>
       </c>
       <c r="N80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>1911</v>
       </c>
       <c r="P80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>1671</v>
       </c>
       <c r="R80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>1791</v>
       </c>
       <c r="T80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="U80" s="11" t="s">
         <v>1551</v>
       </c>
       <c r="V80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="W80" s="11" t="s">
         <v>1311</v>
       </c>
       <c r="X80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="Y80" s="11" t="s">
         <v>1431</v>
       </c>
       <c r="Z80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AA80" s="11" t="s">
         <v>1071</v>
       </c>
       <c r="AB80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AC80" s="11" t="s">
         <v>1191</v>
       </c>
       <c r="AD80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AE80" s="11" t="s">
         <v>831</v>
       </c>
       <c r="AF80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AG80" s="11" t="s">
         <v>951</v>
       </c>
       <c r="AH80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AI80" s="11" t="s">
         <v>711</v>
       </c>
       <c r="AJ80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AK80" s="11" t="s">
         <v>591</v>
       </c>
       <c r="AL80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AM80" s="11" t="s">
         <v>231</v>
       </c>
       <c r="AN80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AO80" s="11" t="s">
         <v>351</v>
@@ -18235,121 +18243,121 @@
     </row>
     <row r="85" spans="2:41">
       <c r="B85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>476</v>
       </c>
       <c r="F85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>2396</v>
       </c>
       <c r="H85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>2276</v>
       </c>
       <c r="J85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>2156</v>
       </c>
       <c r="L85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="M85" s="11" t="s">
         <v>2036</v>
       </c>
       <c r="N85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="O85" s="11" t="s">
         <v>1916</v>
       </c>
       <c r="P85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>1676</v>
       </c>
       <c r="R85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>1796</v>
       </c>
       <c r="T85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="U85" s="11" t="s">
         <v>1556</v>
       </c>
       <c r="V85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="W85" s="11" t="s">
         <v>1316</v>
       </c>
       <c r="X85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="Y85" s="11" t="s">
         <v>1436</v>
       </c>
       <c r="Z85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AA85" s="11" t="s">
         <v>1076</v>
       </c>
       <c r="AB85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AC85" s="11" t="s">
         <v>1196</v>
       </c>
       <c r="AD85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AE85" s="11" t="s">
         <v>836</v>
       </c>
       <c r="AF85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AG85" s="11" t="s">
         <v>956</v>
       </c>
       <c r="AH85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AI85" s="11" t="s">
         <v>716</v>
       </c>
       <c r="AJ85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AK85" s="11" t="s">
         <v>596</v>
       </c>
       <c r="AL85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AM85" s="11" t="s">
         <v>236</v>
       </c>
       <c r="AN85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AO85" s="11" t="s">
         <v>356</v>
@@ -18723,121 +18731,121 @@
     </row>
     <row r="89" spans="2:41">
       <c r="B89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>480</v>
       </c>
       <c r="F89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>2400</v>
       </c>
       <c r="H89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>2280</v>
       </c>
       <c r="J89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="K89" s="11" t="s">
         <v>2160</v>
       </c>
       <c r="L89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="M89" s="11" t="s">
         <v>2040</v>
       </c>
       <c r="N89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>1920</v>
       </c>
       <c r="P89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192999999999998E-2</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>1680</v>
       </c>
       <c r="R89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192999999999998E-2</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>1800</v>
       </c>
       <c r="T89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="U89" s="11" t="s">
         <v>1560</v>
       </c>
       <c r="V89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="W89" s="11" t="s">
         <v>1320</v>
       </c>
       <c r="X89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="Y89" s="11" t="s">
         <v>1440</v>
       </c>
       <c r="Z89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="AA89" s="11" t="s">
         <v>1080</v>
       </c>
       <c r="AB89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="AC89" s="11" t="s">
         <v>1200</v>
       </c>
       <c r="AD89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="AE89" s="11" t="s">
         <v>840</v>
       </c>
       <c r="AF89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="AG89" s="11" t="s">
         <v>960</v>
       </c>
       <c r="AH89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="AI89" s="11" t="s">
         <v>720</v>
       </c>
       <c r="AJ89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192999999999998E-2</v>
       </c>
       <c r="AK89" s="11" t="s">
         <v>600</v>
       </c>
       <c r="AL89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="AM89" s="11" t="s">
         <v>240</v>
       </c>
       <c r="AN89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7192000000000001E-2</v>
       </c>
       <c r="AO89" s="11" t="s">
         <v>360</v>
@@ -18845,61 +18853,61 @@
     </row>
     <row r="90" spans="2:41">
       <c r="B90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>481</v>
       </c>
       <c r="F90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>2401</v>
       </c>
       <c r="H90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>2281</v>
       </c>
       <c r="J90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2400000000000001E-4</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>2161</v>
       </c>
       <c r="L90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="M90" s="11" t="s">
         <v>2041</v>
       </c>
       <c r="N90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>1921</v>
       </c>
       <c r="P90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>1681</v>
       </c>
       <c r="R90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>1801</v>
       </c>
       <c r="T90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="U90" s="11" t="s">
         <v>1561</v>
@@ -18917,13 +18925,13 @@
         <v>1441</v>
       </c>
       <c r="Z90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AA90" s="11" t="s">
         <v>1081</v>
       </c>
       <c r="AB90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AC90" s="11" t="s">
         <v>1201</v>
@@ -18947,19 +18955,19 @@
         <v>721</v>
       </c>
       <c r="AJ90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AK90" s="11" t="s">
         <v>601</v>
       </c>
       <c r="AL90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AM90" s="11" t="s">
         <v>241</v>
       </c>
       <c r="AN90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AO90" s="11" t="s">
         <v>361</v>
@@ -18997,7 +19005,7 @@
         <v>2162</v>
       </c>
       <c r="L91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="M91" s="11" t="s">
         <v>2042</v>
@@ -19455,121 +19463,121 @@
     </row>
     <row r="95" spans="2:41">
       <c r="B95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>486</v>
       </c>
       <c r="F95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>2406</v>
       </c>
       <c r="H95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>2286</v>
       </c>
       <c r="J95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="K95" s="11" t="s">
         <v>2166</v>
       </c>
       <c r="L95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>2046</v>
       </c>
       <c r="N95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>1926</v>
       </c>
       <c r="P95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="R95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>1806</v>
       </c>
       <c r="T95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="U95" s="11" t="s">
         <v>1566</v>
       </c>
       <c r="V95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="W95" s="11" t="s">
         <v>1326</v>
       </c>
       <c r="X95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="Y95" s="11" t="s">
         <v>1446</v>
       </c>
       <c r="Z95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AA95" s="11" t="s">
         <v>1086</v>
       </c>
       <c r="AB95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>1206</v>
       </c>
       <c r="AD95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AE95" s="11" t="s">
         <v>846</v>
       </c>
       <c r="AF95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AG95" s="11" t="s">
         <v>966</v>
       </c>
       <c r="AH95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AI95" s="11" t="s">
         <v>726</v>
       </c>
       <c r="AJ95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AK95" s="11" t="s">
         <v>606</v>
       </c>
       <c r="AL95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AM95" s="11" t="s">
         <v>246</v>
       </c>
       <c r="AN95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AO95" s="11" t="s">
         <v>366</v>
@@ -19821,121 +19829,121 @@
     </row>
     <row r="98" spans="2:41">
       <c r="B98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>489</v>
       </c>
       <c r="F98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>2409</v>
       </c>
       <c r="H98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>2289</v>
       </c>
       <c r="J98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>2169</v>
       </c>
       <c r="L98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>2049</v>
       </c>
       <c r="N98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="O98" s="11" t="s">
         <v>1929</v>
       </c>
       <c r="P98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>1689</v>
       </c>
       <c r="R98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>1809</v>
       </c>
       <c r="T98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="U98" s="11" t="s">
         <v>1569</v>
       </c>
       <c r="V98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8459E-2</v>
       </c>
       <c r="W98" s="11" t="s">
         <v>1329</v>
       </c>
       <c r="X98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8459E-2</v>
       </c>
       <c r="Y98" s="11" t="s">
         <v>1449</v>
       </c>
       <c r="Z98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AA98" s="11" t="s">
         <v>1089</v>
       </c>
       <c r="AB98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AC98" s="11" t="s">
         <v>1209</v>
       </c>
       <c r="AD98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AE98" s="11" t="s">
         <v>849</v>
       </c>
       <c r="AF98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AG98" s="11" t="s">
         <v>969</v>
       </c>
       <c r="AH98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AI98" s="11" t="s">
         <v>729</v>
       </c>
       <c r="AJ98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AK98" s="11" t="s">
         <v>609</v>
       </c>
       <c r="AL98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AM98" s="11" t="s">
         <v>249</v>
       </c>
       <c r="AN98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AO98" s="11" t="s">
         <v>369</v>
@@ -19943,61 +19951,61 @@
     </row>
     <row r="99" spans="2:41">
       <c r="B99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>490</v>
       </c>
       <c r="F99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>2410</v>
       </c>
       <c r="H99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>2290</v>
       </c>
       <c r="J99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>2170</v>
       </c>
       <c r="L99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="M99" s="11" t="s">
         <v>2050</v>
       </c>
       <c r="N99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>1930</v>
       </c>
       <c r="P99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>1690</v>
       </c>
       <c r="R99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="S99" s="11" t="s">
         <v>1810</v>
       </c>
       <c r="T99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="U99" s="11" t="s">
         <v>1570</v>
@@ -20015,13 +20023,13 @@
         <v>1450</v>
       </c>
       <c r="Z99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="AA99" s="11" t="s">
         <v>1090</v>
       </c>
       <c r="AB99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="AC99" s="11" t="s">
         <v>1210</v>
@@ -20045,19 +20053,19 @@
         <v>730</v>
       </c>
       <c r="AJ99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="AK99" s="11" t="s">
         <v>610</v>
       </c>
       <c r="AL99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="AM99" s="11" t="s">
         <v>250</v>
       </c>
       <c r="AN99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="AO99" s="11" t="s">
         <v>370</v>
@@ -20065,121 +20073,121 @@
     </row>
     <row r="100" spans="2:41">
       <c r="B100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>491</v>
       </c>
       <c r="F100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>2411</v>
       </c>
       <c r="H100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>2291</v>
       </c>
       <c r="J100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>2171</v>
       </c>
       <c r="L100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>2051</v>
       </c>
       <c r="N100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>1931</v>
       </c>
       <c r="P100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>1691</v>
       </c>
       <c r="R100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>1811</v>
       </c>
       <c r="T100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="U100" s="11" t="s">
         <v>1571</v>
       </c>
       <c r="V100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="W100" s="11" t="s">
         <v>1331</v>
       </c>
       <c r="X100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="Y100" s="11" t="s">
         <v>1451</v>
       </c>
       <c r="Z100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="AA100" s="11" t="s">
         <v>1091</v>
       </c>
       <c r="AB100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="AC100" s="11" t="s">
         <v>1211</v>
       </c>
       <c r="AD100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="AE100" s="11" t="s">
         <v>851</v>
       </c>
       <c r="AF100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="AG100" s="11" t="s">
         <v>971</v>
       </c>
       <c r="AH100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3540000000000002E-3</v>
       </c>
       <c r="AI100" s="11" t="s">
         <v>731</v>
       </c>
       <c r="AJ100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="AK100" s="11" t="s">
         <v>611</v>
       </c>
       <c r="AL100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="AM100" s="11" t="s">
         <v>251</v>
       </c>
       <c r="AN100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3549999999999999E-3</v>
       </c>
       <c r="AO100" s="11" t="s">
         <v>371</v>
@@ -20187,121 +20195,121 @@
     </row>
     <row r="101" spans="2:41">
       <c r="B101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>492</v>
       </c>
       <c r="F101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>2412</v>
       </c>
       <c r="H101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="J101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>2172</v>
       </c>
       <c r="L101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>2052</v>
       </c>
       <c r="N101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>1932</v>
       </c>
       <c r="P101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>1692</v>
       </c>
       <c r="R101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>1812</v>
       </c>
       <c r="T101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="U101" s="11" t="s">
         <v>1572</v>
       </c>
       <c r="V101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="W101" s="11" t="s">
         <v>1332</v>
       </c>
       <c r="X101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="Y101" s="11" t="s">
         <v>1452</v>
       </c>
       <c r="Z101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AA101" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="AB101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AC101" s="11" t="s">
         <v>1212</v>
       </c>
       <c r="AD101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AE101" s="11" t="s">
         <v>852</v>
       </c>
       <c r="AF101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AG101" s="11" t="s">
         <v>972</v>
       </c>
       <c r="AH101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AI101" s="11" t="s">
         <v>732</v>
       </c>
       <c r="AJ101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AK101" s="11" t="s">
         <v>612</v>
       </c>
       <c r="AL101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AM101" s="11" t="s">
         <v>252</v>
       </c>
       <c r="AN101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AO101" s="11" t="s">
         <v>372</v>
@@ -20309,31 +20317,31 @@
     </row>
     <row r="102" spans="2:41">
       <c r="B102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>493</v>
       </c>
       <c r="F102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>2413</v>
       </c>
       <c r="H102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>2293</v>
       </c>
       <c r="J102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="K102" s="11" t="s">
         <v>2173</v>
@@ -20345,85 +20353,85 @@
         <v>2053</v>
       </c>
       <c r="N102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="O102" s="11" t="s">
         <v>1933</v>
       </c>
       <c r="P102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="Q102" s="11" t="s">
         <v>1693</v>
       </c>
       <c r="R102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="S102" s="11" t="s">
         <v>1813</v>
       </c>
       <c r="T102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="U102" s="11" t="s">
         <v>1573</v>
       </c>
       <c r="V102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="W102" s="11" t="s">
         <v>1333</v>
       </c>
       <c r="X102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="Y102" s="11" t="s">
         <v>1453</v>
       </c>
       <c r="Z102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AA102" s="11" t="s">
         <v>1093</v>
       </c>
       <c r="AB102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AC102" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="AD102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AE102" s="11" t="s">
         <v>853</v>
       </c>
       <c r="AF102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AG102" s="11" t="s">
         <v>973</v>
       </c>
       <c r="AH102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AI102" s="11" t="s">
         <v>733</v>
       </c>
       <c r="AJ102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AK102" s="11" t="s">
         <v>613</v>
       </c>
       <c r="AL102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AM102" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AN102" s="6">
-        <v>3.9090000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="AO102" s="11" t="s">
         <v>373</v>
@@ -20431,121 +20439,121 @@
     </row>
     <row r="103" spans="2:41">
       <c r="B103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>494</v>
       </c>
       <c r="F103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>2414</v>
       </c>
       <c r="H103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>2294</v>
       </c>
       <c r="J103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>2174</v>
       </c>
       <c r="L103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>2054</v>
       </c>
       <c r="N103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>1934</v>
       </c>
       <c r="P103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="R103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>1814</v>
       </c>
       <c r="T103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="U103" s="11" t="s">
         <v>1574</v>
       </c>
       <c r="V103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="W103" s="11" t="s">
         <v>1334</v>
       </c>
       <c r="X103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="Y103" s="11" t="s">
         <v>1454</v>
       </c>
       <c r="Z103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AA103" s="11" t="s">
         <v>1094</v>
       </c>
       <c r="AB103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AC103" s="11" t="s">
         <v>1214</v>
       </c>
       <c r="AD103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AE103" s="11" t="s">
         <v>854</v>
       </c>
       <c r="AF103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AG103" s="11" t="s">
         <v>974</v>
       </c>
       <c r="AH103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AI103" s="11" t="s">
         <v>734</v>
       </c>
       <c r="AJ103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AK103" s="11" t="s">
         <v>614</v>
       </c>
       <c r="AL103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AM103" s="11" t="s">
         <v>254</v>
       </c>
       <c r="AN103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AO103" s="11" t="s">
         <v>374</v>
@@ -20797,121 +20805,121 @@
     </row>
     <row r="106" spans="2:41">
       <c r="B106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>497</v>
       </c>
       <c r="F106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>2417</v>
       </c>
       <c r="H106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>2297</v>
       </c>
       <c r="J106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>2177</v>
       </c>
       <c r="L106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>2057</v>
       </c>
       <c r="N106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>1937</v>
       </c>
       <c r="P106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="R106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>1817</v>
       </c>
       <c r="T106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="U106" s="11" t="s">
         <v>1577</v>
       </c>
       <c r="V106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="W106" s="11" t="s">
         <v>1337</v>
       </c>
       <c r="X106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="Y106" s="11" t="s">
         <v>1457</v>
       </c>
       <c r="Z106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AA106" s="11" t="s">
         <v>1097</v>
       </c>
       <c r="AB106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AC106" s="11" t="s">
         <v>1217</v>
       </c>
       <c r="AD106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AE106" s="11" t="s">
         <v>857</v>
       </c>
       <c r="AF106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AG106" s="11" t="s">
         <v>977</v>
       </c>
       <c r="AH106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AI106" s="11" t="s">
         <v>737</v>
       </c>
       <c r="AJ106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AK106" s="11" t="s">
         <v>617</v>
       </c>
       <c r="AL106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AM106" s="11" t="s">
         <v>257</v>
       </c>
       <c r="AN106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AO106" s="11" t="s">
         <v>377</v>
@@ -20949,7 +20957,7 @@
         <v>2178</v>
       </c>
       <c r="L107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="M107" s="11" t="s">
         <v>2058</v>
@@ -21041,31 +21049,31 @@
     </row>
     <row r="108" spans="2:41">
       <c r="B108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>139</v>
       </c>
       <c r="D108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>499</v>
       </c>
       <c r="F108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>2419</v>
       </c>
       <c r="H108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>2299</v>
       </c>
       <c r="J108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>2179</v>
@@ -21077,85 +21085,85 @@
         <v>2059</v>
       </c>
       <c r="N108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="O108" s="11" t="s">
         <v>1939</v>
       </c>
       <c r="P108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="Q108" s="11" t="s">
         <v>1699</v>
       </c>
       <c r="R108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="S108" s="11" t="s">
         <v>1819</v>
       </c>
       <c r="T108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="U108" s="11" t="s">
         <v>1579</v>
       </c>
       <c r="V108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="W108" s="11" t="s">
         <v>1339</v>
       </c>
       <c r="X108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="Y108" s="11" t="s">
         <v>1459</v>
       </c>
       <c r="Z108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AA108" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="AB108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AC108" s="11" t="s">
         <v>1219</v>
       </c>
       <c r="AD108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AE108" s="11" t="s">
         <v>859</v>
       </c>
       <c r="AF108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AG108" s="11" t="s">
         <v>979</v>
       </c>
       <c r="AH108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AI108" s="11" t="s">
         <v>739</v>
       </c>
       <c r="AJ108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AK108" s="11" t="s">
         <v>619</v>
       </c>
       <c r="AL108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AM108" s="11" t="s">
         <v>259</v>
       </c>
       <c r="AN108" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.495E-3</v>
       </c>
       <c r="AO108" s="11" t="s">
         <v>379</v>
@@ -21163,121 +21171,121 @@
     </row>
     <row r="109" spans="2:41">
       <c r="B109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>500</v>
       </c>
       <c r="F109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>2420</v>
       </c>
       <c r="H109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>2300</v>
       </c>
       <c r="J109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="K109" s="11" t="s">
         <v>2180</v>
       </c>
       <c r="L109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="M109" s="11" t="s">
         <v>2060</v>
       </c>
       <c r="N109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="O109" s="11" t="s">
         <v>1940</v>
       </c>
       <c r="P109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="Q109" s="11" t="s">
         <v>1700</v>
       </c>
       <c r="R109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="S109" s="11" t="s">
         <v>1820</v>
       </c>
       <c r="T109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="U109" s="11" t="s">
         <v>1580</v>
       </c>
       <c r="V109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8180000000000002E-3</v>
       </c>
       <c r="W109" s="11" t="s">
         <v>1340</v>
       </c>
       <c r="X109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8180000000000002E-3</v>
       </c>
       <c r="Y109" s="11" t="s">
         <v>1460</v>
       </c>
       <c r="Z109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="AA109" s="11" t="s">
         <v>1100</v>
       </c>
       <c r="AB109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="AC109" s="11" t="s">
         <v>1220</v>
       </c>
       <c r="AD109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8170000000000001E-3</v>
       </c>
       <c r="AE109" s="11" t="s">
         <v>860</v>
       </c>
       <c r="AF109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8170000000000001E-3</v>
       </c>
       <c r="AG109" s="11" t="s">
         <v>980</v>
       </c>
       <c r="AH109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8170000000000001E-3</v>
       </c>
       <c r="AI109" s="11" t="s">
         <v>740</v>
       </c>
       <c r="AJ109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="AK109" s="11" t="s">
         <v>620</v>
       </c>
       <c r="AL109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="AM109" s="11" t="s">
         <v>260</v>
       </c>
       <c r="AN109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="AO109" s="11" t="s">
         <v>380</v>
@@ -21285,121 +21293,121 @@
     </row>
     <row r="110" spans="2:41">
       <c r="B110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>501</v>
       </c>
       <c r="F110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>2421</v>
       </c>
       <c r="H110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>2301</v>
       </c>
       <c r="J110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>2181</v>
       </c>
       <c r="L110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>2061</v>
       </c>
       <c r="N110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="O110" s="11" t="s">
         <v>1941</v>
       </c>
       <c r="P110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="Q110" s="11" t="s">
         <v>1701</v>
       </c>
       <c r="R110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="S110" s="11" t="s">
         <v>1821</v>
       </c>
       <c r="T110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="U110" s="11" t="s">
         <v>1581</v>
       </c>
       <c r="V110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="W110" s="11" t="s">
         <v>1341</v>
       </c>
       <c r="X110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="Y110" s="11" t="s">
         <v>1461</v>
       </c>
       <c r="Z110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="AA110" s="11" t="s">
         <v>1101</v>
       </c>
       <c r="AB110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="AC110" s="11" t="s">
         <v>1221</v>
       </c>
       <c r="AD110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="AE110" s="11" t="s">
         <v>861</v>
       </c>
       <c r="AF110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="AG110" s="11" t="s">
         <v>981</v>
       </c>
       <c r="AH110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.843E-3</v>
       </c>
       <c r="AI110" s="11" t="s">
         <v>741</v>
       </c>
       <c r="AJ110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="AK110" s="11" t="s">
         <v>621</v>
       </c>
       <c r="AL110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="AM110" s="11" t="s">
         <v>261</v>
       </c>
       <c r="AN110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.8440000000000002E-3</v>
       </c>
       <c r="AO110" s="11" t="s">
         <v>381</v>
@@ -21529,121 +21537,121 @@
     </row>
     <row r="112" spans="2:41">
       <c r="B112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>503</v>
       </c>
       <c r="F112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>2423</v>
       </c>
       <c r="H112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>2303</v>
       </c>
       <c r="J112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>2183</v>
       </c>
       <c r="L112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="M112" s="11" t="s">
         <v>2063</v>
       </c>
       <c r="N112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="O112" s="11" t="s">
         <v>1943</v>
       </c>
       <c r="P112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="Q112" s="11" t="s">
         <v>1703</v>
       </c>
       <c r="R112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="S112" s="11" t="s">
         <v>1823</v>
       </c>
       <c r="T112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="U112" s="11" t="s">
         <v>1583</v>
       </c>
       <c r="V112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="W112" s="11" t="s">
         <v>1343</v>
       </c>
       <c r="X112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="Y112" s="11" t="s">
         <v>1463</v>
       </c>
       <c r="Z112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AA112" s="11" t="s">
         <v>1103</v>
       </c>
       <c r="AB112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AC112" s="11" t="s">
         <v>1223</v>
       </c>
       <c r="AD112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AE112" s="11" t="s">
         <v>863</v>
       </c>
       <c r="AF112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AG112" s="11" t="s">
         <v>983</v>
       </c>
       <c r="AH112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AI112" s="11" t="s">
         <v>743</v>
       </c>
       <c r="AJ112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AK112" s="11" t="s">
         <v>623</v>
       </c>
       <c r="AL112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AM112" s="11" t="s">
         <v>263</v>
       </c>
       <c r="AN112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AO112" s="11" t="s">
         <v>383</v>
@@ -21773,121 +21781,121 @@
     </row>
     <row r="114" spans="1:41">
       <c r="B114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>505</v>
       </c>
       <c r="F114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>2425</v>
       </c>
       <c r="H114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>2305</v>
       </c>
       <c r="J114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>2185</v>
       </c>
       <c r="L114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>2065</v>
       </c>
       <c r="N114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>1945</v>
       </c>
       <c r="P114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="Q114" s="11" t="s">
         <v>1705</v>
       </c>
       <c r="R114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="S114" s="11" t="s">
         <v>1825</v>
       </c>
       <c r="T114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="U114" s="11" t="s">
         <v>1585</v>
       </c>
       <c r="V114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="W114" s="11" t="s">
         <v>1345</v>
       </c>
       <c r="X114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="Y114" s="11" t="s">
         <v>1465</v>
       </c>
       <c r="Z114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AA114" s="11" t="s">
         <v>1105</v>
       </c>
       <c r="AB114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AC114" s="11" t="s">
         <v>1225</v>
       </c>
       <c r="AD114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AE114" s="11" t="s">
         <v>865</v>
       </c>
       <c r="AF114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AG114" s="11" t="s">
         <v>985</v>
       </c>
       <c r="AH114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AI114" s="11" t="s">
         <v>745</v>
       </c>
       <c r="AJ114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AK114" s="11" t="s">
         <v>625</v>
       </c>
       <c r="AL114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AM114" s="11" t="s">
         <v>265</v>
       </c>
       <c r="AN114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AO114" s="11" t="s">
         <v>385</v>
@@ -21895,121 +21903,121 @@
     </row>
     <row r="115" spans="1:41">
       <c r="B115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>506</v>
       </c>
       <c r="F115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>2426</v>
       </c>
       <c r="H115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>2306</v>
       </c>
       <c r="J115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="K115" s="11" t="s">
         <v>2186</v>
       </c>
       <c r="L115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>2066</v>
       </c>
       <c r="N115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>1946</v>
       </c>
       <c r="P115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="Q115" s="11" t="s">
         <v>1706</v>
       </c>
       <c r="R115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="S115" s="11" t="s">
         <v>1826</v>
       </c>
       <c r="T115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="U115" s="11" t="s">
         <v>1586</v>
       </c>
       <c r="V115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="W115" s="11" t="s">
         <v>1346</v>
       </c>
       <c r="X115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="Y115" s="11" t="s">
         <v>1466</v>
       </c>
       <c r="Z115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AA115" s="11" t="s">
         <v>1106</v>
       </c>
       <c r="AB115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AC115" s="11" t="s">
         <v>1226</v>
       </c>
       <c r="AD115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AE115" s="11" t="s">
         <v>866</v>
       </c>
       <c r="AF115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AG115" s="11" t="s">
         <v>986</v>
       </c>
       <c r="AH115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AI115" s="11" t="s">
         <v>746</v>
       </c>
       <c r="AJ115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AK115" s="11" t="s">
         <v>626</v>
       </c>
       <c r="AL115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AM115" s="11" t="s">
         <v>266</v>
       </c>
       <c r="AN115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="AO115" s="11" t="s">
         <v>386</v>
@@ -22017,121 +22025,121 @@
     </row>
     <row r="116" spans="1:41">
       <c r="B116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>147</v>
       </c>
       <c r="D116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>507</v>
       </c>
       <c r="F116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>2427</v>
       </c>
       <c r="H116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>2307</v>
       </c>
       <c r="J116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>2187</v>
       </c>
       <c r="L116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>2067</v>
       </c>
       <c r="N116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="O116" s="11" t="s">
         <v>1947</v>
       </c>
       <c r="P116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="Q116" s="11" t="s">
         <v>1707</v>
       </c>
       <c r="R116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="S116" s="11" t="s">
         <v>1827</v>
       </c>
       <c r="T116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="U116" s="11" t="s">
         <v>1587</v>
       </c>
       <c r="V116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="W116" s="11" t="s">
         <v>1347</v>
       </c>
       <c r="X116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="Y116" s="11" t="s">
         <v>1467</v>
       </c>
       <c r="Z116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AA116" s="11" t="s">
         <v>1107</v>
       </c>
       <c r="AB116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AC116" s="11" t="s">
         <v>1227</v>
       </c>
       <c r="AD116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AE116" s="11" t="s">
         <v>867</v>
       </c>
       <c r="AF116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AG116" s="11" t="s">
         <v>987</v>
       </c>
       <c r="AH116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AI116" s="11" t="s">
         <v>747</v>
       </c>
       <c r="AJ116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AK116" s="11" t="s">
         <v>627</v>
       </c>
       <c r="AL116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AM116" s="11" t="s">
         <v>267</v>
       </c>
       <c r="AN116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AO116" s="11" t="s">
         <v>387</v>
@@ -22139,121 +22147,121 @@
     </row>
     <row r="117" spans="1:41">
       <c r="B117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>508</v>
       </c>
       <c r="F117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>2428</v>
       </c>
       <c r="H117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>2308</v>
       </c>
       <c r="J117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>2188</v>
       </c>
       <c r="L117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>2068</v>
       </c>
       <c r="N117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>1948</v>
       </c>
       <c r="P117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="Q117" s="11" t="s">
         <v>1708</v>
       </c>
       <c r="R117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="S117" s="11" t="s">
         <v>1828</v>
       </c>
       <c r="T117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="U117" s="11" t="s">
         <v>1588</v>
       </c>
       <c r="V117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="W117" s="11" t="s">
         <v>1348</v>
       </c>
       <c r="X117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="Y117" s="11" t="s">
         <v>1468</v>
       </c>
       <c r="Z117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AA117" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="AB117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AC117" s="11" t="s">
         <v>1228</v>
       </c>
       <c r="AD117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AE117" s="11" t="s">
         <v>868</v>
       </c>
       <c r="AF117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AG117" s="11" t="s">
         <v>988</v>
       </c>
       <c r="AH117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AI117" s="11" t="s">
         <v>748</v>
       </c>
       <c r="AJ117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AK117" s="11" t="s">
         <v>628</v>
       </c>
       <c r="AL117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AM117" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AN117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AO117" s="11" t="s">
         <v>388</v>
@@ -22505,121 +22513,121 @@
     </row>
     <row r="120" spans="1:41">
       <c r="B120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>511</v>
       </c>
       <c r="F120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>2431</v>
       </c>
       <c r="H120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>2311</v>
       </c>
       <c r="J120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>2191</v>
       </c>
       <c r="L120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>2071</v>
       </c>
       <c r="N120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="O120" s="11" t="s">
         <v>1951</v>
       </c>
       <c r="P120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>1711</v>
       </c>
       <c r="R120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="S120" s="11" t="s">
         <v>1831</v>
       </c>
       <c r="T120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="U120" s="11" t="s">
         <v>1591</v>
       </c>
       <c r="V120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="W120" s="11" t="s">
         <v>1351</v>
       </c>
       <c r="X120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="Y120" s="11" t="s">
         <v>1471</v>
       </c>
       <c r="Z120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AA120" s="11" t="s">
         <v>1111</v>
       </c>
       <c r="AB120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AC120" s="11" t="s">
         <v>1231</v>
       </c>
       <c r="AD120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AE120" s="11" t="s">
         <v>871</v>
       </c>
       <c r="AF120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AG120" s="11" t="s">
         <v>991</v>
       </c>
       <c r="AH120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AI120" s="11" t="s">
         <v>751</v>
       </c>
       <c r="AJ120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AK120" s="11" t="s">
         <v>631</v>
       </c>
       <c r="AL120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AM120" s="11" t="s">
         <v>271</v>
       </c>
       <c r="AN120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AO120" s="11" t="s">
         <v>391</v>
@@ -22875,102 +22883,102 @@
       </c>
       <c r="B123" s="5">
         <f>AVERAGE(B3:B122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6052666666666649E-3</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="5">
         <f>AVERAGE(D3:D122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6052666666666649E-3</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="5">
         <f>AVERAGE(F3:F122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6052666666666649E-3</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="5">
         <f>AVERAGE(H3:H122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6052583333333325E-3</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="5">
         <f>AVERAGE(J3:J122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6052583333333325E-3</v>
       </c>
       <c r="K123" s="13"/>
       <c r="L123" s="5">
         <f>AVERAGE(L3:L122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="M123" s="13"/>
       <c r="N123" s="5">
         <f>AVERAGE(N3:N122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053249999999987E-3</v>
       </c>
       <c r="O123" s="13"/>
       <c r="P123" s="5">
         <f>AVERAGE(P3:P122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053583333333319E-3</v>
       </c>
       <c r="Q123" s="13"/>
       <c r="R123" s="5">
         <f>AVERAGE(R3:R122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053583333333319E-3</v>
       </c>
       <c r="S123" s="13"/>
       <c r="T123" s="5">
         <f>AVERAGE(T3:T122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053499999999995E-3</v>
       </c>
       <c r="U123" s="13"/>
       <c r="V123" s="5">
         <f>AVERAGE(V3:V122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6054583333333348E-3</v>
       </c>
       <c r="W123" s="13"/>
       <c r="X123" s="5">
         <f>AVERAGE(X3:X122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6054583333333348E-3</v>
       </c>
       <c r="Y123" s="13"/>
       <c r="Z123" s="5">
         <f>AVERAGE(Z3:Z122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.605366666666666E-3</v>
       </c>
       <c r="AA123" s="13"/>
       <c r="AB123" s="5">
         <f>AVERAGE(AB3:AB122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.605366666666666E-3</v>
       </c>
       <c r="AC123" s="13"/>
       <c r="AD123" s="5">
         <f>AVERAGE(AD3:AD122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6054333333333323E-3</v>
       </c>
       <c r="AE123" s="13"/>
       <c r="AF123" s="5">
         <f>AVERAGE(AF3:AF122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6054333333333323E-3</v>
       </c>
       <c r="AG123" s="13"/>
       <c r="AH123" s="5">
         <f>AVERAGE(AH3:AH122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6054333333333323E-3</v>
       </c>
       <c r="AI123" s="13"/>
       <c r="AJ123" s="5">
         <f>AVERAGE(AJ3:AJ122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053583333333319E-3</v>
       </c>
       <c r="AK123" s="13"/>
       <c r="AL123" s="5">
         <f>AVERAGE(AL3:AL122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053249999999987E-3</v>
       </c>
       <c r="AM123" s="13"/>
       <c r="AN123" s="5">
         <f>AVERAGE(AN3:AN122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6053249999999987E-3</v>
       </c>
       <c r="AO123" s="13"/>
     </row>
@@ -22980,102 +22988,102 @@
       </c>
       <c r="B124" s="3">
         <f>MEDIAN(B3:B122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="3">
         <f>MEDIAN(D3:D122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="3">
         <f>MEDIAN(F3:F122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="3">
         <f>MEDIAN(H3:H122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="3">
         <f>MEDIAN(J3:J122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="3">
         <f>MEDIAN(L3:L122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="3">
         <f>MEDIAN(N3:N122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="O124" s="10"/>
       <c r="P124" s="3">
         <f>MEDIAN(P3:P122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="Q124" s="10"/>
       <c r="R124" s="3">
         <f>MEDIAN(R3:R122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="3">
         <f>MEDIAN(T3:T122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="U124" s="10"/>
       <c r="V124" s="3">
         <f>MEDIAN(V3:V122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="W124" s="10"/>
       <c r="X124" s="3">
         <f>MEDIAN(X3:X122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="3">
         <f>MEDIAN(Z3:Z122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AA124" s="10"/>
       <c r="AB124" s="3">
         <f>MEDIAN(AB3:AB122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AC124" s="10"/>
       <c r="AD124" s="3">
         <f>MEDIAN(AD3:AD122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AE124" s="10"/>
       <c r="AF124" s="3">
         <f>MEDIAN(AF3:AF122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AG124" s="10"/>
       <c r="AH124" s="3">
         <f>MEDIAN(AH3:AH122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AI124" s="10"/>
       <c r="AJ124" s="3">
         <f>MEDIAN(AJ3:AJ122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AK124" s="10"/>
       <c r="AL124" s="3">
         <f>MEDIAN(AL3:AL122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AM124" s="10"/>
       <c r="AN124" s="3">
         <f>MEDIAN(AN3:AN122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AO124" s="10"/>
     </row>
@@ -23085,102 +23093,102 @@
       </c>
       <c r="B125" s="5">
         <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="5">
         <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="5">
         <f>AVERAGE(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
         <f>AVERAGE(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="5">
         <f>AVERAGE(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="5">
         <f>AVERAGE(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="M125" s="13"/>
       <c r="N125" s="5">
         <f>AVERAGE(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="O125" s="13"/>
       <c r="P125" s="5">
         <f>AVERAGE(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="Q125" s="13"/>
       <c r="R125" s="5">
         <f>AVERAGE(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="S125" s="13"/>
       <c r="T125" s="5">
         <f>AVERAGE(T3:T7,T12:T17,T21,T23:T26,T31,T34,T39:T47,T52:T57,T61,T63:T66,T71,T74,T79:T87,T92:T97,T101,T103:T106,T111,T114,T119:T122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="U125" s="13"/>
       <c r="V125" s="5">
         <f>AVERAGE(V3:V7,V12:V17,V21,V23:V26,V31,V34,V39:V47,V52:V57,V61,V63:V66,V71,V74,V79:V87,V92:V97,V101,V103:V106,V111,V114,V119:V122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="W125" s="13"/>
       <c r="X125" s="5">
         <f>AVERAGE(X3:X7,X12:X17,X21,X23:X26,X31,X34,X39:X47,X52:X57,X61,X63:X66,X71,X74,X79:X87,X92:X97,X101,X103:X106,X111,X114,X119:X122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="Y125" s="13"/>
       <c r="Z125" s="5">
         <f>AVERAGE(Z3:Z7,Z12:Z17,Z21,Z23:Z26,Z31,Z34,Z39:Z47,Z52:Z57,Z61,Z63:Z66,Z71,Z74,Z79:Z87,Z92:Z97,Z101,Z103:Z106,Z111,Z114,Z119:Z122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AA125" s="13"/>
       <c r="AB125" s="5">
         <f>AVERAGE(AB3:AB7,AB12:AB17,AB21,AB23:AB26,AB31,AB34,AB39:AB47,AB52:AB57,AB61,AB63:AB66,AB71,AB74,AB79:AB87,AB92:AB97,AB101,AB103:AB106,AB111,AB114,AB119:AB122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AC125" s="13"/>
       <c r="AD125" s="5">
         <f>AVERAGE(AD3:AD7,AD12:AD17,AD21,AD23:AD26,AD31,AD34,AD39:AD47,AD52:AD57,AD61,AD63:AD66,AD71,AD74,AD79:AD87,AD92:AD97,AD101,AD103:AD106,AD111,AD114,AD119:AD122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AE125" s="13"/>
       <c r="AF125" s="5">
         <f>AVERAGE(AF3:AF7,AF12:AF17,AF21,AF23:AF26,AF31,AF34,AF39:AF47,AF52:AF57,AF61,AF63:AF66,AF71,AF74,AF79:AF87,AF92:AF97,AF101,AF103:AF106,AF111,AF114,AF119:AF122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AG125" s="13"/>
       <c r="AH125" s="5">
         <f>AVERAGE(AH3:AH7,AH12:AH17,AH21,AH23:AH26,AH31,AH34,AH39:AH47,AH52:AH57,AH61,AH63:AH66,AH71,AH74,AH79:AH87,AH92:AH97,AH101,AH103:AH106,AH111,AH114,AH119:AH122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AI125" s="13"/>
       <c r="AJ125" s="5">
         <f>AVERAGE(AJ3:AJ7,AJ12:AJ17,AJ21,AJ23:AJ26,AJ31,AJ34,AJ39:AJ47,AJ52:AJ57,AJ61,AJ63:AJ66,AJ71,AJ74,AJ79:AJ87,AJ92:AJ97,AJ101,AJ103:AJ106,AJ111,AJ114,AJ119:AJ122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AK125" s="13"/>
       <c r="AL125" s="5">
         <f>AVERAGE(AL3:AL7,AL12:AL17,AL21,AL23:AL26,AL31,AL34,AL39:AL47,AL52:AL57,AL61,AL63:AL66,AL71,AL74,AL79:AL87,AL92:AL97,AL101,AL103:AL106,AL111,AL114,AL119:AL122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AM125" s="13"/>
       <c r="AN125" s="5">
         <f>AVERAGE(AN3:AN7,AN12:AN17,AN21,AN23:AN26,AN31,AN34,AN39:AN47,AN52:AN57,AN61,AN63:AN66,AN71,AN74,AN79:AN87,AN92:AN97,AN101,AN103:AN106,AN111,AN114,AN119:AN122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AO125" s="13"/>
     </row>
@@ -23190,102 +23198,102 @@
       </c>
       <c r="B126" s="3">
         <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3">
         <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="3">
         <f>MEDIAN(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="3">
         <f>MEDIAN(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="3">
         <f>MEDIAN(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="3">
         <f>MEDIAN(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="3">
         <f>MEDIAN(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="3">
         <f>MEDIAN(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="Q126" s="10"/>
       <c r="R126" s="3">
         <f>MEDIAN(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="3">
         <f>MEDIAN(T3:T7,T12:T17,T21,T23:T26,T31,T34,T39:T47,T52:T57,T61,T63:T66,T71,T74,T79:T87,T92:T97,T101,T103:T106,T111,T114,T119:T122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="U126" s="10"/>
       <c r="V126" s="3">
         <f>MEDIAN(V3:V7,V12:V17,V21,V23:V26,V31,V34,V39:V47,V52:V57,V61,V63:V66,V71,V74,V79:V87,V92:V97,V101,V103:V106,V111,V114,V119:V122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="W126" s="10"/>
       <c r="X126" s="3">
         <f>MEDIAN(X3:X7,X12:X17,X21,X23:X26,X31,X34,X39:X47,X52:X57,X61,X63:X66,X71,X74,X79:X87,X92:X97,X101,X103:X106,X111,X114,X119:X122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="3">
         <f>MEDIAN(Z3:Z7,Z12:Z17,Z21,Z23:Z26,Z31,Z34,Z39:Z47,Z52:Z57,Z61,Z63:Z66,Z71,Z74,Z79:Z87,Z92:Z97,Z101,Z103:Z106,Z111,Z114,Z119:Z122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="3">
         <f>MEDIAN(AB3:AB7,AB12:AB17,AB21,AB23:AB26,AB31,AB34,AB39:AB47,AB52:AB57,AB61,AB63:AB66,AB71,AB74,AB79:AB87,AB92:AB97,AB101,AB103:AB106,AB111,AB114,AB119:AB122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AC126" s="10"/>
       <c r="AD126" s="3">
         <f>MEDIAN(AD3:AD7,AD12:AD17,AD21,AD23:AD26,AD31,AD34,AD39:AD47,AD52:AD57,AD61,AD63:AD66,AD71,AD74,AD79:AD87,AD92:AD97,AD101,AD103:AD106,AD111,AD114,AD119:AD122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AE126" s="10"/>
       <c r="AF126" s="3">
         <f>MEDIAN(AF3:AF7,AF12:AF17,AF21,AF23:AF26,AF31,AF34,AF39:AF47,AF52:AF57,AF61,AF63:AF66,AF71,AF74,AF79:AF87,AF92:AF97,AF101,AF103:AF106,AF111,AF114,AF119:AF122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AG126" s="10"/>
       <c r="AH126" s="3">
         <f>MEDIAN(AH3:AH7,AH12:AH17,AH21,AH23:AH26,AH31,AH34,AH39:AH47,AH52:AH57,AH61,AH63:AH66,AH71,AH74,AH79:AH87,AH92:AH97,AH101,AH103:AH106,AH111,AH114,AH119:AH122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AI126" s="10"/>
       <c r="AJ126" s="3">
         <f>MEDIAN(AJ3:AJ7,AJ12:AJ17,AJ21,AJ23:AJ26,AJ31,AJ34,AJ39:AJ47,AJ52:AJ57,AJ61,AJ63:AJ66,AJ71,AJ74,AJ79:AJ87,AJ92:AJ97,AJ101,AJ103:AJ106,AJ111,AJ114,AJ119:AJ122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AK126" s="10"/>
       <c r="AL126" s="3">
         <f>MEDIAN(AL3:AL7,AL12:AL17,AL21,AL23:AL26,AL31,AL34,AL39:AL47,AL52:AL57,AL61,AL63:AL66,AL71,AL74,AL79:AL87,AL92:AL97,AL101,AL103:AL106,AL111,AL114,AL119:AL122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AM126" s="10"/>
       <c r="AN126" s="3">
         <f>MEDIAN(AN3:AN7,AN12:AN17,AN21,AN23:AN26,AN31,AN34,AN39:AN47,AN52:AN57,AN61,AN63:AN66,AN71,AN74,AN79:AN87,AN92:AN97,AN101,AN103:AN106,AN111,AN114,AN119:AN122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AO126" s="10"/>
     </row>
@@ -23295,102 +23303,102 @@
       </c>
       <c r="B127" s="5">
         <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652314814814817E-2</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="5">
         <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652314814814817E-2</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="5">
         <f>AVERAGE(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652314814814817E-2</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
         <f>AVERAGE(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652296296296301E-2</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="5">
         <f>AVERAGE(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652296296296301E-2</v>
       </c>
       <c r="K127" s="13"/>
       <c r="L127" s="5">
         <f>AVERAGE(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="M127" s="13"/>
       <c r="N127" s="5">
         <f>AVERAGE(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652444444444446E-2</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="5">
         <f>AVERAGE(P8:P11,P18:P20,P22,P27:P30,P32:P33,P35:P38,P48:P51,P58:P60,P62,P67:P70,P72:P73,P75:P78,P88:P91,P98:P100,P102,P107:P110,P112:P113,P115:P118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165251851851852E-2</v>
       </c>
       <c r="Q127" s="13"/>
       <c r="R127" s="5">
         <f>AVERAGE(R8:R11,R18:R20,R22,R27:R30,R32:R33,R35:R38,R48:R51,R58:R60,R62,R67:R70,R72:R73,R75:R78,R88:R91,R98:R100,R102,R107:R110,R112:R113,R115:R118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165251851851852E-2</v>
       </c>
       <c r="S127" s="13"/>
       <c r="T127" s="5">
         <f>AVERAGE(T8:T11,T18:T20,T22,T27:T30,T32:T33,T35:T38,T48:T51,T58:T60,T62,T67:T70,T72:T73,T75:T78,T88:T91,T98:T100,T102,T107:T110,T112:T113,T115:T118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652500000000001E-2</v>
       </c>
       <c r="U127" s="13"/>
       <c r="V127" s="5">
         <f>AVERAGE(V8:V11,V18:V20,V22,V27:V30,V32:V33,V35:V38,V48:V51,V58:V60,V62,V67:V70,V72:V73,V75:V78,V88:V91,V98:V100,V102,V107:V110,V112:V113,V115:V118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652740740740745E-2</v>
       </c>
       <c r="W127" s="13"/>
       <c r="X127" s="5">
         <f>AVERAGE(X8:X11,X18:X20,X22,X27:X30,X32:X33,X35:X38,X48:X51,X58:X60,X62,X67:X70,X72:X73,X75:X78,X88:X91,X98:X100,X102,X107:X110,X112:X113,X115:X118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652740740740745E-2</v>
       </c>
       <c r="Y127" s="13"/>
       <c r="Z127" s="5">
         <f>AVERAGE(Z8:Z11,Z18:Z20,Z22,Z27:Z30,Z32:Z33,Z35:Z38,Z48:Z51,Z58:Z60,Z62,Z67:Z70,Z72:Z73,Z75:Z78,Z88:Z91,Z98:Z100,Z102,Z107:Z110,Z112:Z113,Z115:Z118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652537037037039E-2</v>
       </c>
       <c r="AA127" s="13"/>
       <c r="AB127" s="5">
         <f>AVERAGE(AB8:AB11,AB18:AB20,AB22,AB27:AB30,AB32:AB33,AB35:AB38,AB48:AB51,AB58:AB60,AB62,AB67:AB70,AB72:AB73,AB75:AB78,AB88:AB91,AB98:AB100,AB102,AB107:AB110,AB112:AB113,AB115:AB118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652537037037039E-2</v>
       </c>
       <c r="AC127" s="13"/>
       <c r="AD127" s="5">
         <f>AVERAGE(AD8:AD11,AD18:AD20,AD22,AD27:AD30,AD32:AD33,AD35:AD38,AD48:AD51,AD58:AD60,AD62,AD67:AD70,AD72:AD73,AD75:AD78,AD88:AD91,AD98:AD100,AD102,AD107:AD110,AD112:AD113,AD115:AD118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165268518518519E-2</v>
       </c>
       <c r="AE127" s="13"/>
       <c r="AF127" s="5">
         <f>AVERAGE(AF8:AF11,AF18:AF20,AF22,AF27:AF30,AF32:AF33,AF35:AF38,AF48:AF51,AF58:AF60,AF62,AF67:AF70,AF72:AF73,AF75:AF78,AF88:AF91,AF98:AF100,AF102,AF107:AF110,AF112:AF113,AF115:AF118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165268518518519E-2</v>
       </c>
       <c r="AG127" s="13"/>
       <c r="AH127" s="5">
         <f>AVERAGE(AH8:AH11,AH18:AH20,AH22,AH27:AH30,AH32:AH33,AH35:AH38,AH48:AH51,AH58:AH60,AH62,AH67:AH70,AH72:AH73,AH75:AH78,AH88:AH91,AH98:AH100,AH102,AH107:AH110,AH112:AH113,AH115:AH118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165268518518519E-2</v>
       </c>
       <c r="AI127" s="13"/>
       <c r="AJ127" s="5">
         <f>AVERAGE(AJ8:AJ11,AJ18:AJ20,AJ22,AJ27:AJ30,AJ32:AJ33,AJ35:AJ38,AJ48:AJ51,AJ58:AJ60,AJ62,AJ67:AJ70,AJ72:AJ73,AJ75:AJ78,AJ88:AJ91,AJ98:AJ100,AJ102,AJ107:AJ110,AJ112:AJ113,AJ115:AJ118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.165251851851852E-2</v>
       </c>
       <c r="AK127" s="13"/>
       <c r="AL127" s="5">
         <f>AVERAGE(AL8:AL11,AL18:AL20,AL22,AL27:AL30,AL32:AL33,AL35:AL38,AL48:AL51,AL58:AL60,AL62,AL67:AL70,AL72:AL73,AL75:AL78,AL88:AL91,AL98:AL100,AL102,AL107:AL110,AL112:AL113,AL115:AL118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652444444444446E-2</v>
       </c>
       <c r="AM127" s="13"/>
       <c r="AN127" s="5">
         <f>AVERAGE(AN8:AN11,AN18:AN20,AN22,AN27:AN30,AN32:AN33,AN35:AN38,AN48:AN51,AN58:AN60,AN62,AN67:AN70,AN72:AN73,AN75:AN78,AN88:AN91,AN98:AN100,AN102,AN107:AN110,AN112:AN113,AN115:AN118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1652444444444446E-2</v>
       </c>
       <c r="AO127" s="13"/>
     </row>
@@ -23430,7 +23438,7 @@
       <c r="M128" s="10"/>
       <c r="N128" s="3">
         <f>MEDIAN(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="O128" s="10"/>
       <c r="P128" s="3">
@@ -23445,7 +23453,7 @@
       <c r="S128" s="10"/>
       <c r="T128" s="3">
         <f>MEDIAN(T8:T11,T18:T20,T22,T27:T30,T32:T33,T35:T38,T48:T51,T58:T60,T62,T67:T70,T72:T73,T75:T78,T88:T91,T98:T100,T102,T107:T110,T112:T113,T115:T118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="U128" s="10"/>
       <c r="V128" s="3">
@@ -23460,12 +23468,12 @@
       <c r="Y128" s="10"/>
       <c r="Z128" s="3">
         <f>MEDIAN(Z8:Z11,Z18:Z20,Z22,Z27:Z30,Z32:Z33,Z35:Z38,Z48:Z51,Z58:Z60,Z62,Z67:Z70,Z72:Z73,Z75:Z78,Z88:Z91,Z98:Z100,Z102,Z107:Z110,Z112:Z113,Z115:Z118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="AA128" s="10"/>
       <c r="AB128" s="3">
         <f>MEDIAN(AB8:AB11,AB18:AB20,AB22,AB27:AB30,AB32:AB33,AB35:AB38,AB48:AB51,AB58:AB60,AB62,AB67:AB70,AB72:AB73,AB75:AB78,AB88:AB91,AB98:AB100,AB102,AB107:AB110,AB112:AB113,AB115:AB118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="AC128" s="10"/>
       <c r="AD128" s="3">
@@ -23490,12 +23498,12 @@
       <c r="AK128" s="10"/>
       <c r="AL128" s="3">
         <f>MEDIAN(AL8:AL11,AL18:AL20,AL22,AL27:AL30,AL32:AL33,AL35:AL38,AL48:AL51,AL58:AL60,AL62,AL67:AL70,AL72:AL73,AL75:AL78,AL88:AL91,AL98:AL100,AL102,AL107:AL110,AL112:AL113,AL115:AL118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="AM128" s="10"/>
       <c r="AN128" s="3">
         <f>MEDIAN(AN8:AN11,AN18:AN20,AN22,AN27:AN30,AN32:AN33,AN35:AN38,AN48:AN51,AN58:AN60,AN62,AN67:AN70,AN72:AN73,AN75:AN78,AN88:AN91,AN98:AN100,AN102,AN107:AN110,AN112:AN113,AN115:AN118)</f>
-        <v>2.1429999999999999E-3</v>
+        <v>2.1435E-3</v>
       </c>
       <c r="AO128" s="10"/>
     </row>
@@ -23505,102 +23513,102 @@
       </c>
       <c r="B129" s="5">
         <f>AVERAGE(B43:B82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="5">
         <f>AVERAGE(D43:D82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="5">
         <f>AVERAGE(F43:F82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
         <f>AVERAGE(H43:H82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="5">
         <f>AVERAGE(J43:J82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="K129" s="13"/>
       <c r="L129" s="5">
         <f>AVERAGE(L43:L82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="M129" s="13"/>
       <c r="N129" s="5">
         <f>AVERAGE(N43:N82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="O129" s="13"/>
       <c r="P129" s="5">
         <f>AVERAGE(P43:P82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670749999999995E-3</v>
       </c>
       <c r="Q129" s="13"/>
       <c r="R129" s="5">
         <f>AVERAGE(R43:R82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670749999999995E-3</v>
       </c>
       <c r="S129" s="13"/>
       <c r="T129" s="5">
         <f>AVERAGE(T43:T82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670499999999988E-3</v>
       </c>
       <c r="U129" s="13"/>
       <c r="V129" s="5">
         <f>AVERAGE(V43:V82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.567324999999998E-3</v>
       </c>
       <c r="W129" s="13"/>
       <c r="X129" s="5">
         <f>AVERAGE(X43:X82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.567324999999998E-3</v>
       </c>
       <c r="Y129" s="13"/>
       <c r="Z129" s="5">
         <f>AVERAGE(Z43:Z82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670749999999995E-3</v>
       </c>
       <c r="AA129" s="13"/>
       <c r="AB129" s="5">
         <f>AVERAGE(AB43:AB82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670749999999995E-3</v>
       </c>
       <c r="AC129" s="13"/>
       <c r="AD129" s="5">
         <f>AVERAGE(AD43:AD82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5672499999999993E-3</v>
       </c>
       <c r="AE129" s="13"/>
       <c r="AF129" s="5">
         <f>AVERAGE(AF43:AF82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5672499999999993E-3</v>
       </c>
       <c r="AG129" s="13"/>
       <c r="AH129" s="5">
         <f>AVERAGE(AH43:AH82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5672499999999993E-3</v>
       </c>
       <c r="AI129" s="13"/>
       <c r="AJ129" s="5">
         <f>AVERAGE(AJ43:AJ82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5670749999999995E-3</v>
       </c>
       <c r="AK129" s="13"/>
       <c r="AL129" s="5">
         <f>AVERAGE(AL43:AL82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="AM129" s="13"/>
       <c r="AN129" s="5">
         <f>AVERAGE(AN43:AN82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5669499999999985E-3</v>
       </c>
       <c r="AO129" s="13"/>
     </row>
@@ -23610,102 +23618,102 @@
       </c>
       <c r="B130" s="3">
         <f>MEDIAN(B43:B82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="3">
         <f>MEDIAN(D43:D82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="3">
         <f>MEDIAN(F43:F82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="3">
         <f>MEDIAN(H43:H82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="3">
         <f>MEDIAN(J43:J82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3">
         <f>MEDIAN(L43:L82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="3">
         <f>MEDIAN(N43:N82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="O130" s="10"/>
       <c r="P130" s="3">
         <f>MEDIAN(P43:P82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="Q130" s="10"/>
       <c r="R130" s="3">
         <f>MEDIAN(R43:R82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="3">
         <f>MEDIAN(T43:T82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="U130" s="10"/>
       <c r="V130" s="3">
         <f>MEDIAN(V43:V82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3235000000000001E-3</v>
       </c>
       <c r="W130" s="10"/>
       <c r="X130" s="3">
         <f>MEDIAN(X43:X82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3235000000000001E-3</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="3">
         <f>MEDIAN(Z43:Z82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="AA130" s="10"/>
       <c r="AB130" s="3">
         <f>MEDIAN(AB43:AB82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="AC130" s="10"/>
       <c r="AD130" s="3">
         <f>MEDIAN(AD43:AD82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3235000000000001E-3</v>
       </c>
       <c r="AE130" s="10"/>
       <c r="AF130" s="3">
         <f>MEDIAN(AF43:AF82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3235000000000001E-3</v>
       </c>
       <c r="AG130" s="10"/>
       <c r="AH130" s="3">
         <f>MEDIAN(AH43:AH82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3235000000000001E-3</v>
       </c>
       <c r="AI130" s="10"/>
       <c r="AJ130" s="3">
         <f>MEDIAN(AJ43:AJ82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="AK130" s="10"/>
       <c r="AL130" s="3">
         <f>MEDIAN(AL43:AL82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="AM130" s="10"/>
       <c r="AN130" s="3">
         <f>MEDIAN(AN43:AN82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3254999999999995E-3</v>
       </c>
       <c r="AO130" s="10"/>
     </row>
@@ -23715,102 +23723,102 @@
       </c>
       <c r="B131" s="5">
         <f>AVERAGE(B83:B122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2568750000000012E-3</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="5">
         <f>AVERAGE(D83:D122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2568750000000012E-3</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="5">
         <f>AVERAGE(F83:F122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2568750000000012E-3</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="5">
         <f>AVERAGE(H83:H122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2568500000000005E-3</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="5">
         <f>AVERAGE(J83:J122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2568750000000012E-3</v>
       </c>
       <c r="K131" s="13"/>
       <c r="L131" s="5">
         <f>AVERAGE(L83:L122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="5">
         <f>AVERAGE(N83:N122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569250000000009E-3</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="5">
         <f>AVERAGE(P83:P122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569500000000016E-3</v>
       </c>
       <c r="Q131" s="13"/>
       <c r="R131" s="5">
         <f>AVERAGE(R83:R122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569500000000016E-3</v>
       </c>
       <c r="S131" s="13"/>
       <c r="T131" s="5">
         <f>AVERAGE(T83:T122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569000000000019E-3</v>
       </c>
       <c r="U131" s="13"/>
       <c r="V131" s="5">
         <f>AVERAGE(V83:V122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571000000000007E-3</v>
       </c>
       <c r="W131" s="13"/>
       <c r="X131" s="5">
         <f>AVERAGE(X83:X122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571000000000007E-3</v>
       </c>
       <c r="Y131" s="13"/>
       <c r="Z131" s="5">
         <f>AVERAGE(Z83:Z122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569250000000009E-3</v>
       </c>
       <c r="AA131" s="13"/>
       <c r="AB131" s="5">
         <f>AVERAGE(AB83:AB122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569250000000009E-3</v>
       </c>
       <c r="AC131" s="13"/>
       <c r="AD131" s="5">
         <f>AVERAGE(AD83:AD122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571000000000007E-3</v>
       </c>
       <c r="AE131" s="13"/>
       <c r="AF131" s="5">
         <f>AVERAGE(AF83:AF122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571000000000007E-3</v>
       </c>
       <c r="AG131" s="13"/>
       <c r="AH131" s="5">
         <f>AVERAGE(AH83:AH122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571000000000007E-3</v>
       </c>
       <c r="AI131" s="13"/>
       <c r="AJ131" s="5">
         <f>AVERAGE(AJ83:AJ122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569500000000016E-3</v>
       </c>
       <c r="AK131" s="13"/>
       <c r="AL131" s="5">
         <f>AVERAGE(AL83:AL122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569250000000009E-3</v>
       </c>
       <c r="AM131" s="13"/>
       <c r="AN131" s="5">
         <f>AVERAGE(AN83:AN122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2569250000000009E-3</v>
       </c>
       <c r="AO131" s="13"/>
     </row>
@@ -23820,102 +23828,102 @@
       </c>
       <c r="B132" s="3">
         <f>MEDIAN(B83:B122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="3">
         <f>MEDIAN(D83:D122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="3">
         <f>MEDIAN(F83:F122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="3">
         <f>MEDIAN(H83:H122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="3">
         <f>MEDIAN(J83:J122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="3">
         <f>MEDIAN(L83:L122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="3">
         <f>MEDIAN(N83:N122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="O132" s="10"/>
       <c r="P132" s="3">
         <f>MEDIAN(P83:P122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="Q132" s="10"/>
       <c r="R132" s="3">
         <f>MEDIAN(R83:R122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="S132" s="10"/>
       <c r="T132" s="3">
         <f>MEDIAN(T83:T122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U132" s="10"/>
       <c r="V132" s="3">
         <f>MEDIAN(V83:V122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="W132" s="10"/>
       <c r="X132" s="3">
         <f>MEDIAN(X83:X122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="Y132" s="10"/>
       <c r="Z132" s="3">
         <f>MEDIAN(Z83:Z122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AA132" s="10"/>
       <c r="AB132" s="3">
         <f>MEDIAN(AB83:AB122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AC132" s="10"/>
       <c r="AD132" s="3">
         <f>MEDIAN(AD83:AD122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AE132" s="10"/>
       <c r="AF132" s="3">
         <f>MEDIAN(AF83:AF122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AG132" s="10"/>
       <c r="AH132" s="3">
         <f>MEDIAN(AH83:AH122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AI132" s="10"/>
       <c r="AJ132" s="3">
         <f>MEDIAN(AJ83:AJ122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AK132" s="10"/>
       <c r="AL132" s="3">
         <f>MEDIAN(AL83:AL122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AM132" s="10"/>
       <c r="AN132" s="3">
         <f>MEDIAN(AN83:AN122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AO132" s="10"/>
     </row>
@@ -23925,102 +23933,102 @@
       </c>
       <c r="B133" s="5">
         <f>AVERAGE(B3:B42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919749999999993E-3</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="5">
         <f>AVERAGE(D3:D42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919749999999993E-3</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="5">
         <f>AVERAGE(F3:F42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919749999999993E-3</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="5">
         <f>AVERAGE(H3:H42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919750000000027E-3</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="5">
         <f>AVERAGE(J3:J42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="K133" s="13"/>
       <c r="L133" s="5">
         <f>AVERAGE(L3:L42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="M133" s="13"/>
       <c r="N133" s="5">
         <f>AVERAGE(N3:N42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="5">
         <f>AVERAGE(P3:P42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9920499999999997E-3</v>
       </c>
       <c r="Q133" s="13"/>
       <c r="R133" s="5">
         <f>AVERAGE(R3:R42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9920499999999997E-3</v>
       </c>
       <c r="S133" s="13"/>
       <c r="T133" s="5">
         <f>AVERAGE(T3:T42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="U133" s="13"/>
       <c r="V133" s="5">
         <f>AVERAGE(V3:V42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="W133" s="13"/>
       <c r="X133" s="5">
         <f>AVERAGE(X3:X42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="Y133" s="13"/>
       <c r="Z133" s="5">
         <f>AVERAGE(Z3:Z42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="AA133" s="13"/>
       <c r="AB133" s="5">
         <f>AVERAGE(AB3:AB42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="AC133" s="13"/>
       <c r="AD133" s="5">
         <f>AVERAGE(AD3:AD42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="AE133" s="13"/>
       <c r="AF133" s="5">
         <f>AVERAGE(AF3:AF42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="AG133" s="13"/>
       <c r="AH133" s="5">
         <f>AVERAGE(AH3:AH42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.991950000000002E-3</v>
       </c>
       <c r="AI133" s="13"/>
       <c r="AJ133" s="5">
         <f>AVERAGE(AJ3:AJ42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9920499999999997E-3</v>
       </c>
       <c r="AK133" s="13"/>
       <c r="AL133" s="5">
         <f>AVERAGE(AL3:AL42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="AM133" s="13"/>
       <c r="AN133" s="5">
         <f>AVERAGE(AN3:AN42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9921000000000011E-3</v>
       </c>
       <c r="AO133" s="13"/>
     </row>
@@ -24030,102 +24038,102 @@
       </c>
       <c r="B134" s="3">
         <f>MEDIAN(B3:B42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="3">
         <f>MEDIAN(D3:D42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="3">
         <f>MEDIAN(F3:F42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="3">
         <f>MEDIAN(H3:H42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="3">
         <f>MEDIAN(J3:J42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="K134" s="10"/>
       <c r="L134" s="3">
         <f>MEDIAN(L3:L42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="M134" s="10"/>
       <c r="N134" s="3">
         <f>MEDIAN(N3:N42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="O134" s="10"/>
       <c r="P134" s="3">
         <f>MEDIAN(P3:P42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="Q134" s="10"/>
       <c r="R134" s="3">
         <f>MEDIAN(R3:R42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="S134" s="10"/>
       <c r="T134" s="3">
         <f>MEDIAN(T3:T42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="U134" s="10"/>
       <c r="V134" s="3">
         <f>MEDIAN(V3:V42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="W134" s="10"/>
       <c r="X134" s="3">
         <f>MEDIAN(X3:X42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="Y134" s="10"/>
       <c r="Z134" s="3">
         <f>MEDIAN(Z3:Z42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AA134" s="10"/>
       <c r="AB134" s="3">
         <f>MEDIAN(AB3:AB42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AC134" s="10"/>
       <c r="AD134" s="3">
         <f>MEDIAN(AD3:AD42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AE134" s="10"/>
       <c r="AF134" s="3">
         <f>MEDIAN(AF3:AF42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AG134" s="10"/>
       <c r="AH134" s="3">
         <f>MEDIAN(AH3:AH42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AI134" s="10"/>
       <c r="AJ134" s="3">
         <f>MEDIAN(AJ3:AJ42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AK134" s="10"/>
       <c r="AL134" s="3">
         <f>MEDIAN(AL3:AL42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AM134" s="10"/>
       <c r="AN134" s="3">
         <f>MEDIAN(AN3:AN42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AO134" s="10"/>
     </row>
